--- a/Sosya/R_calc_DinFET/Data/Din Fet 2024.xlsx
+++ b/Sosya/R_calc_DinFET/Data/Din Fet 2024.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9120"/>
+    <workbookView windowWidth="22188" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="19">
   <si>
     <t>Site</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Din Fet 1</t>
   </si>
   <si>
-    <t>0.152</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
@@ -71,508 +68,13 @@
     <t>NA</t>
   </si>
   <si>
-    <t>0.831</t>
-  </si>
-  <si>
     <t>T</t>
-  </si>
-  <si>
-    <t>0.131</t>
-  </si>
-  <si>
-    <t>0.174</t>
-  </si>
-  <si>
-    <t>0.276</t>
   </si>
   <si>
     <t>F</t>
   </si>
   <si>
-    <t>0.218</t>
-  </si>
-  <si>
-    <t>0.053</t>
-  </si>
-  <si>
-    <t>0.138</t>
-  </si>
-  <si>
-    <t>0.286</t>
-  </si>
-  <si>
-    <t>0.102</t>
-  </si>
-  <si>
-    <t>0.074</t>
-  </si>
-  <si>
-    <t>0.063</t>
-  </si>
-  <si>
-    <t>0.061</t>
-  </si>
-  <si>
-    <t>0.087</t>
-  </si>
-  <si>
-    <t>0.200</t>
-  </si>
-  <si>
-    <t>0.070</t>
-  </si>
-  <si>
-    <t>0.203</t>
-  </si>
-  <si>
-    <t>0.397</t>
-  </si>
-  <si>
-    <t>0.180</t>
-  </si>
-  <si>
-    <t>0.140</t>
-  </si>
-  <si>
-    <t>0.288</t>
-  </si>
-  <si>
-    <t>0.076</t>
-  </si>
-  <si>
-    <t>0.052</t>
-  </si>
-  <si>
-    <t>0.118</t>
-  </si>
-  <si>
-    <t>0.056</t>
-  </si>
-  <si>
-    <t>0.050</t>
-  </si>
-  <si>
-    <t>0.181</t>
-  </si>
-  <si>
-    <t>0.306</t>
-  </si>
-  <si>
-    <t>0.129</t>
-  </si>
-  <si>
-    <t>0.333</t>
-  </si>
-  <si>
-    <t>0.411</t>
-  </si>
-  <si>
-    <t>0.422</t>
-  </si>
-  <si>
-    <t>0.228</t>
-  </si>
-  <si>
-    <t>1.432</t>
-  </si>
-  <si>
-    <t>0.292</t>
-  </si>
-  <si>
-    <t>0.377</t>
-  </si>
-  <si>
-    <t>0.305</t>
-  </si>
-  <si>
-    <t>0.568</t>
-  </si>
-  <si>
-    <t>0.222</t>
-  </si>
-  <si>
-    <t>0.177</t>
-  </si>
-  <si>
-    <t>0.204</t>
-  </si>
-  <si>
-    <t>0.413</t>
-  </si>
-  <si>
-    <t>0.202</t>
-  </si>
-  <si>
-    <t>0.279</t>
-  </si>
-  <si>
-    <t>0.501</t>
-  </si>
-  <si>
-    <t>0.266</t>
-  </si>
-  <si>
-    <t>0.112</t>
-  </si>
-  <si>
-    <t>0.423</t>
-  </si>
-  <si>
-    <t>0.343</t>
-  </si>
-  <si>
-    <t>0.346</t>
-  </si>
-  <si>
-    <t>0.211</t>
-  </si>
-  <si>
-    <t>0.163</t>
-  </si>
-  <si>
-    <t>0.054</t>
-  </si>
-  <si>
-    <t>0.176</t>
-  </si>
-  <si>
-    <t>0.216</t>
-  </si>
-  <si>
-    <t>0.389</t>
-  </si>
-  <si>
-    <t>0.134</t>
-  </si>
-  <si>
-    <t>0.098</t>
-  </si>
-  <si>
-    <t>0.096</t>
-  </si>
-  <si>
-    <t>0.330</t>
-  </si>
-  <si>
-    <t>0.095</t>
-  </si>
-  <si>
-    <t>0.115</t>
-  </si>
-  <si>
-    <t>0.312</t>
-  </si>
-  <si>
-    <t>0.153</t>
-  </si>
-  <si>
-    <t>0.045</t>
-  </si>
-  <si>
-    <t>0.084</t>
-  </si>
-  <si>
-    <t>0.094</t>
-  </si>
-  <si>
-    <t>0.234</t>
-  </si>
-  <si>
-    <t>0.103</t>
-  </si>
-  <si>
-    <t>0.114</t>
-  </si>
-  <si>
-    <t>0.123</t>
-  </si>
-  <si>
-    <t>0.172</t>
-  </si>
-  <si>
-    <t>0.190</t>
-  </si>
-  <si>
-    <t>0.165</t>
-  </si>
-  <si>
-    <t>0.081</t>
-  </si>
-  <si>
-    <t>0.225</t>
-  </si>
-  <si>
-    <t>0.078</t>
-  </si>
-  <si>
-    <t>0.051</t>
-  </si>
-  <si>
-    <t>0.299</t>
-  </si>
-  <si>
-    <t>0.229</t>
-  </si>
-  <si>
-    <t>0.079</t>
-  </si>
-  <si>
-    <t>0.148</t>
-  </si>
-  <si>
-    <t>0.166</t>
-  </si>
-  <si>
-    <t>0.170</t>
-  </si>
-  <si>
-    <t>0.207</t>
-  </si>
-  <si>
-    <t>0.245</t>
-  </si>
-  <si>
     <t>Din Fet 2</t>
-  </si>
-  <si>
-    <t>0.692</t>
-  </si>
-  <si>
-    <t>0.265</t>
-  </si>
-  <si>
-    <t>0.300</t>
-  </si>
-  <si>
-    <t>0.341</t>
-  </si>
-  <si>
-    <t>0.349</t>
-  </si>
-  <si>
-    <t>0.451</t>
-  </si>
-  <si>
-    <t>0.963</t>
-  </si>
-  <si>
-    <t>0.327</t>
-  </si>
-  <si>
-    <t>0.168</t>
-  </si>
-  <si>
-    <t>0.271</t>
-  </si>
-  <si>
-    <t>0.361</t>
-  </si>
-  <si>
-    <t>0.965</t>
-  </si>
-  <si>
-    <t>0.358</t>
-  </si>
-  <si>
-    <t>1.123</t>
-  </si>
-  <si>
-    <t>0.432</t>
-  </si>
-  <si>
-    <t>0.463</t>
-  </si>
-  <si>
-    <t>0.175</t>
-  </si>
-  <si>
-    <t>0.233</t>
-  </si>
-  <si>
-    <t>0.221</t>
-  </si>
-  <si>
-    <t>0.514</t>
-  </si>
-  <si>
-    <t>0.269</t>
-  </si>
-  <si>
-    <t>0.770</t>
-  </si>
-  <si>
-    <t>0.217</t>
-  </si>
-  <si>
-    <t>0.331</t>
-  </si>
-  <si>
-    <t>0.130</t>
-  </si>
-  <si>
-    <t>0.434</t>
-  </si>
-  <si>
-    <t>0.316</t>
-  </si>
-  <si>
-    <t>0.539</t>
-  </si>
-  <si>
-    <t>0.488</t>
-  </si>
-  <si>
-    <t>0.440</t>
-  </si>
-  <si>
-    <t>0.387</t>
-  </si>
-  <si>
-    <t>0.135</t>
-  </si>
-  <si>
-    <t>0.322</t>
-  </si>
-  <si>
-    <t>0.375</t>
-  </si>
-  <si>
-    <t>0.360</t>
-  </si>
-  <si>
-    <t>0.309</t>
-  </si>
-  <si>
-    <t>0.242</t>
-  </si>
-  <si>
-    <t>0.595</t>
-  </si>
-  <si>
-    <t>0.187</t>
-  </si>
-  <si>
-    <t>0.186</t>
-  </si>
-  <si>
-    <t>2.044</t>
-  </si>
-  <si>
-    <t>0.092</t>
-  </si>
-  <si>
-    <t>1.086</t>
-  </si>
-  <si>
-    <t>0.295</t>
-  </si>
-  <si>
-    <t>0.795</t>
-  </si>
-  <si>
-    <t>0.417</t>
-  </si>
-  <si>
-    <t>0.920</t>
-  </si>
-  <si>
-    <t>0.989</t>
-  </si>
-  <si>
-    <t>0.201</t>
-  </si>
-  <si>
-    <t>0.226</t>
-  </si>
-  <si>
-    <t>0.164</t>
-  </si>
-  <si>
-    <t>0.664</t>
-  </si>
-  <si>
-    <t>0.161</t>
-  </si>
-  <si>
-    <t>0.870</t>
-  </si>
-  <si>
-    <t>0.616</t>
-  </si>
-  <si>
-    <t>0.246</t>
-  </si>
-  <si>
-    <t>0.481</t>
-  </si>
-  <si>
-    <t>0.550</t>
-  </si>
-  <si>
-    <t>1.076</t>
-  </si>
-  <si>
-    <t>0.324</t>
-  </si>
-  <si>
-    <t>0.433</t>
-  </si>
-  <si>
-    <t>0.264</t>
-  </si>
-  <si>
-    <t>0.669</t>
-  </si>
-  <si>
-    <t>0.619</t>
-  </si>
-  <si>
-    <t>0.405</t>
-  </si>
-  <si>
-    <t>0.210</t>
-  </si>
-  <si>
-    <t>0.091</t>
-  </si>
-  <si>
-    <t>0.215</t>
-  </si>
-  <si>
-    <t>0.370</t>
-  </si>
-  <si>
-    <t>1.385</t>
-  </si>
-  <si>
-    <t>1.136</t>
-  </si>
-  <si>
-    <t>0.465</t>
-  </si>
-  <si>
-    <t>0.536</t>
-  </si>
-  <si>
-    <t>0.307</t>
-  </si>
-  <si>
-    <t>0.162</t>
-  </si>
-  <si>
-    <t>0.191</t>
-  </si>
-  <si>
-    <t>2.470</t>
-  </si>
-  <si>
-    <t>0.357</t>
-  </si>
-  <si>
-    <t>0.356</t>
-  </si>
-  <si>
-    <t>0.192</t>
   </si>
   <si>
     <t>Din Fet 3</t>
@@ -1553,7 +1055,7 @@
   <dimension ref="A1:K336"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1609,20 +1111,20 @@
       <c r="D2" s="4">
         <v>1</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>10</v>
+      <c r="E2" s="4">
+        <v>0.152</v>
       </c>
       <c r="F2" s="4">
         <v>12</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
@@ -1640,20 +1142,20 @@
       <c r="D3" s="4">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>14</v>
+      <c r="E3" s="4">
+        <v>0.831</v>
       </c>
       <c r="F3" s="4">
         <v>21</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -1671,20 +1173,20 @@
       <c r="D4" s="4">
         <v>1</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>16</v>
+      <c r="E4" s="4">
+        <v>0.131</v>
       </c>
       <c r="F4" s="4">
         <v>12</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -1702,20 +1204,20 @@
       <c r="D5" s="4">
         <v>1</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>17</v>
+      <c r="E5" s="4">
+        <v>0.174</v>
       </c>
       <c r="F5" s="4">
         <v>11</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
@@ -1733,20 +1235,20 @@
       <c r="D6" s="4">
         <v>2</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>18</v>
+      <c r="E6" s="4">
+        <v>0.276</v>
       </c>
       <c r="F6" s="4">
         <v>14</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -1764,20 +1266,20 @@
       <c r="D7" s="4">
         <v>2</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>20</v>
+      <c r="E7" s="4">
+        <v>0.218</v>
       </c>
       <c r="F7" s="4">
         <v>13</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -1795,20 +1297,20 @@
       <c r="D8" s="4">
         <v>3</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>21</v>
+      <c r="E8" s="4">
+        <v>0.053</v>
       </c>
       <c r="F8" s="4">
         <v>9</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -1826,20 +1328,20 @@
       <c r="D9" s="4">
         <v>2</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>16</v>
+      <c r="E9" s="4">
+        <v>0.131</v>
       </c>
       <c r="F9" s="4">
         <v>13</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -1857,20 +1359,20 @@
       <c r="D10" s="4">
         <v>3</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>22</v>
+      <c r="E10" s="4">
+        <v>0.138</v>
       </c>
       <c r="F10" s="4">
         <v>11</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
@@ -1888,20 +1390,20 @@
       <c r="D11" s="4">
         <v>5</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>23</v>
+      <c r="E11" s="4">
+        <v>0.286</v>
       </c>
       <c r="F11" s="4">
         <v>16</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -1919,20 +1421,20 @@
       <c r="D12" s="4">
         <v>4</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>24</v>
+      <c r="E12" s="4">
+        <v>0.102</v>
       </c>
       <c r="F12" s="4">
         <v>10</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -1950,20 +1452,20 @@
       <c r="D13" s="4">
         <v>7</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>25</v>
+      <c r="E13" s="4">
+        <v>0.074</v>
       </c>
       <c r="F13" s="4">
         <v>10</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -1981,20 +1483,20 @@
       <c r="D14" s="4">
         <v>9</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>26</v>
+      <c r="E14" s="4">
+        <v>0.063</v>
       </c>
       <c r="F14" s="4">
         <v>9</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -2012,20 +1514,20 @@
       <c r="D15" s="4">
         <v>10</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>27</v>
+      <c r="E15" s="4">
+        <v>0.061</v>
       </c>
       <c r="F15" s="4">
         <v>9</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
@@ -2043,20 +1545,20 @@
       <c r="D16" s="4">
         <v>10</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>21</v>
+      <c r="E16" s="4">
+        <v>0.053</v>
       </c>
       <c r="F16" s="4">
         <v>9</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -2074,20 +1576,20 @@
       <c r="D17" s="4">
         <v>9</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>28</v>
+      <c r="E17" s="4">
+        <v>0.087</v>
       </c>
       <c r="F17" s="4">
         <v>10</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
@@ -2105,20 +1607,20 @@
       <c r="D18" s="4">
         <v>11</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>29</v>
+      <c r="E18" s="4">
+        <v>0.2</v>
       </c>
       <c r="F18" s="4">
         <v>14</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -2136,20 +1638,20 @@
       <c r="D19" s="4">
         <v>9</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>30</v>
+      <c r="E19" s="4">
+        <v>0.07</v>
       </c>
       <c r="F19" s="4">
         <v>9</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
@@ -2167,20 +1669,20 @@
       <c r="D20" s="4">
         <v>7</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>31</v>
+      <c r="E20" s="4">
+        <v>0.203</v>
       </c>
       <c r="F20" s="4">
         <v>14</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -2198,20 +1700,20 @@
       <c r="D21" s="4">
         <v>7</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>32</v>
+      <c r="E21" s="4">
+        <v>0.397</v>
       </c>
       <c r="F21" s="4">
         <v>16</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
@@ -2229,20 +1731,20 @@
       <c r="D22" s="4">
         <v>7</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>33</v>
+      <c r="E22" s="4">
+        <v>0.18</v>
       </c>
       <c r="F22" s="4">
         <v>12</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
@@ -2260,20 +1762,20 @@
       <c r="D23" s="4">
         <v>9</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>34</v>
+      <c r="E23" s="4">
+        <v>0.14</v>
       </c>
       <c r="F23" s="4">
         <v>13</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
@@ -2291,20 +1793,20 @@
       <c r="D24" s="4">
         <v>10</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>35</v>
+      <c r="E24" s="4">
+        <v>0.288</v>
       </c>
       <c r="F24" s="4">
         <v>16</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
@@ -2322,20 +1824,20 @@
       <c r="D25" s="4">
         <v>10</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>36</v>
+      <c r="E25" s="4">
+        <v>0.076</v>
       </c>
       <c r="F25" s="4">
         <v>10</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
@@ -2353,20 +1855,20 @@
       <c r="D26" s="4">
         <v>8</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>37</v>
+      <c r="E26" s="4">
+        <v>0.052</v>
       </c>
       <c r="F26" s="4">
         <v>8</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
@@ -2384,20 +1886,20 @@
       <c r="D27" s="4">
         <v>8</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>38</v>
+      <c r="E27" s="4">
+        <v>0.118</v>
       </c>
       <c r="F27" s="4">
         <v>13</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
@@ -2415,20 +1917,20 @@
       <c r="D28" s="4">
         <v>9</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>39</v>
+      <c r="E28" s="4">
+        <v>0.056</v>
       </c>
       <c r="F28" s="4">
         <v>9</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
@@ -2446,20 +1948,20 @@
       <c r="D29" s="4">
         <v>11</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>40</v>
+      <c r="E29" s="4">
+        <v>0.05</v>
       </c>
       <c r="F29" s="4">
         <v>8</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
@@ -2477,20 +1979,20 @@
       <c r="D30" s="4">
         <v>9</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>41</v>
+      <c r="E30" s="4">
+        <v>0.181</v>
       </c>
       <c r="F30" s="4">
         <v>14</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
@@ -2508,20 +2010,20 @@
       <c r="D31" s="4">
         <v>10</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>42</v>
+      <c r="E31" s="4">
+        <v>0.306</v>
       </c>
       <c r="F31" s="4">
         <v>18</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
@@ -2539,20 +2041,20 @@
       <c r="D32" s="4">
         <v>9</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>43</v>
+      <c r="E32" s="4">
+        <v>0.129</v>
       </c>
       <c r="F32" s="4">
         <v>13</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
@@ -2570,20 +2072,20 @@
       <c r="D33" s="4">
         <v>12</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>44</v>
+      <c r="E33" s="4">
+        <v>0.333</v>
       </c>
       <c r="F33" s="4">
         <v>15</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
@@ -2601,20 +2103,20 @@
       <c r="D34" s="4">
         <v>13</v>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>36</v>
+      <c r="E34" s="4">
+        <v>0.076</v>
       </c>
       <c r="F34" s="4">
         <v>9</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
@@ -2632,20 +2134,20 @@
       <c r="D35" s="4">
         <v>14</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>45</v>
+      <c r="E35" s="4">
+        <v>0.411</v>
       </c>
       <c r="F35" s="4">
         <v>17</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
@@ -2663,20 +2165,20 @@
       <c r="D36" s="4">
         <v>2</v>
       </c>
-      <c r="E36" s="4" t="s">
-        <v>46</v>
+      <c r="E36" s="4">
+        <v>0.422</v>
       </c>
       <c r="F36" s="4">
         <v>17</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
@@ -2694,20 +2196,20 @@
       <c r="D37" s="4">
         <v>4</v>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>47</v>
+      <c r="E37" s="4">
+        <v>0.228</v>
       </c>
       <c r="F37" s="4">
         <v>16</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
@@ -2725,20 +2227,20 @@
       <c r="D38" s="4">
         <v>5</v>
       </c>
-      <c r="E38" s="4" t="s">
-        <v>31</v>
+      <c r="E38" s="4">
+        <v>0.203</v>
       </c>
       <c r="F38" s="4">
         <v>13</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
@@ -2756,20 +2258,20 @@
       <c r="D39" s="4">
         <v>4</v>
       </c>
-      <c r="E39" s="4" t="s">
-        <v>48</v>
+      <c r="E39" s="4">
+        <v>1.432</v>
       </c>
       <c r="F39" s="4">
         <v>23</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
@@ -2787,20 +2289,20 @@
       <c r="D40" s="4">
         <v>4</v>
       </c>
-      <c r="E40" s="4" t="s">
-        <v>49</v>
+      <c r="E40" s="4">
+        <v>0.292</v>
       </c>
       <c r="F40" s="4">
         <v>16</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
@@ -2818,20 +2320,20 @@
       <c r="D41" s="4">
         <v>5</v>
       </c>
-      <c r="E41" s="4" t="s">
-        <v>50</v>
+      <c r="E41" s="4">
+        <v>0.377</v>
       </c>
       <c r="F41" s="4">
         <v>17</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
@@ -2849,20 +2351,20 @@
       <c r="D42" s="4">
         <v>6</v>
       </c>
-      <c r="E42" s="4" t="s">
-        <v>51</v>
+      <c r="E42" s="4">
+        <v>0.305</v>
       </c>
       <c r="F42" s="4">
         <v>16</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
@@ -2880,20 +2382,20 @@
       <c r="D43" s="4">
         <v>6</v>
       </c>
-      <c r="E43" s="4" t="s">
-        <v>52</v>
+      <c r="E43" s="4">
+        <v>0.568</v>
       </c>
       <c r="F43" s="4">
         <v>18</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
@@ -2911,20 +2413,20 @@
       <c r="D44" s="4">
         <v>4</v>
       </c>
-      <c r="E44" s="4" t="s">
-        <v>53</v>
+      <c r="E44" s="4">
+        <v>0.222</v>
       </c>
       <c r="F44" s="4">
         <v>15</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
@@ -2942,20 +2444,20 @@
       <c r="D45" s="4">
         <v>4</v>
       </c>
-      <c r="E45" s="4" t="s">
-        <v>54</v>
+      <c r="E45" s="4">
+        <v>0.177</v>
       </c>
       <c r="F45" s="4">
         <v>13</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
@@ -2973,20 +2475,20 @@
       <c r="D46" s="4">
         <v>4</v>
       </c>
-      <c r="E46" s="4" t="s">
-        <v>55</v>
+      <c r="E46" s="4">
+        <v>0.204</v>
       </c>
       <c r="F46" s="4">
         <v>14</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
@@ -3004,20 +2506,20 @@
       <c r="D47" s="4">
         <v>5</v>
       </c>
-      <c r="E47" s="4" t="s">
-        <v>31</v>
+      <c r="E47" s="4">
+        <v>0.203</v>
       </c>
       <c r="F47" s="4">
         <v>13</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
@@ -3035,20 +2537,20 @@
       <c r="D48" s="4">
         <v>6</v>
       </c>
-      <c r="E48" s="4" t="s">
-        <v>56</v>
+      <c r="E48" s="4">
+        <v>0.413</v>
       </c>
       <c r="F48" s="4">
         <v>17</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
@@ -3066,20 +2568,20 @@
       <c r="D49" s="4">
         <v>8</v>
       </c>
-      <c r="E49" s="4" t="s">
-        <v>46</v>
+      <c r="E49" s="4">
+        <v>0.422</v>
       </c>
       <c r="F49" s="4">
         <v>18</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
@@ -3097,20 +2599,20 @@
       <c r="D50" s="4">
         <v>8</v>
       </c>
-      <c r="E50" s="4" t="s">
-        <v>57</v>
+      <c r="E50" s="4">
+        <v>0.202</v>
       </c>
       <c r="F50" s="4">
         <v>14</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
@@ -3128,20 +2630,20 @@
       <c r="D51" s="4">
         <v>9</v>
       </c>
-      <c r="E51" s="4" t="s">
-        <v>58</v>
+      <c r="E51" s="4">
+        <v>0.279</v>
       </c>
       <c r="F51" s="4">
         <v>16</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
@@ -3159,20 +2661,20 @@
       <c r="D52" s="4">
         <v>9</v>
       </c>
-      <c r="E52" s="4" t="s">
-        <v>59</v>
+      <c r="E52" s="4">
+        <v>0.501</v>
       </c>
       <c r="F52" s="4">
         <v>19</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
@@ -3190,20 +2692,20 @@
       <c r="D53" s="4">
         <v>1</v>
       </c>
-      <c r="E53" s="4" t="s">
-        <v>60</v>
+      <c r="E53" s="4">
+        <v>0.266</v>
       </c>
       <c r="F53" s="4">
         <v>14</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
@@ -3221,20 +2723,20 @@
       <c r="D54" s="4">
         <v>1</v>
       </c>
-      <c r="E54" s="4" t="s">
-        <v>61</v>
+      <c r="E54" s="4">
+        <v>0.112</v>
       </c>
       <c r="F54" s="4">
         <v>11</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
@@ -3252,20 +2754,20 @@
       <c r="D55" s="4">
         <v>4</v>
       </c>
-      <c r="E55" s="4" t="s">
-        <v>62</v>
+      <c r="E55" s="4">
+        <v>0.423</v>
       </c>
       <c r="F55" s="4">
         <v>17</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
@@ -3283,20 +2785,20 @@
       <c r="D56" s="4">
         <v>13</v>
       </c>
-      <c r="E56" s="4" t="s">
-        <v>63</v>
+      <c r="E56" s="4">
+        <v>0.343</v>
       </c>
       <c r="F56" s="4">
         <v>17</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
@@ -3314,20 +2816,20 @@
       <c r="D57" s="4">
         <v>11</v>
       </c>
-      <c r="E57" s="4" t="s">
-        <v>64</v>
+      <c r="E57" s="4">
+        <v>0.346</v>
       </c>
       <c r="F57" s="4">
         <v>16</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
@@ -3345,20 +2847,20 @@
       <c r="D58" s="4">
         <v>13</v>
       </c>
-      <c r="E58" s="4" t="s">
-        <v>65</v>
+      <c r="E58" s="4">
+        <v>0.211</v>
       </c>
       <c r="F58" s="4">
         <v>14</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
@@ -3376,20 +2878,20 @@
       <c r="D59" s="4">
         <v>14</v>
       </c>
-      <c r="E59" s="4" t="s">
-        <v>66</v>
+      <c r="E59" s="4">
+        <v>0.163</v>
       </c>
       <c r="F59" s="4">
         <v>13</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
@@ -3407,20 +2909,20 @@
       <c r="D60" s="4">
         <v>14</v>
       </c>
-      <c r="E60" s="4" t="s">
-        <v>67</v>
+      <c r="E60" s="4">
+        <v>0.054</v>
       </c>
       <c r="F60" s="4">
         <v>9</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
@@ -3438,20 +2940,20 @@
       <c r="D61" s="4">
         <v>17</v>
       </c>
-      <c r="E61" s="4" t="s">
-        <v>68</v>
+      <c r="E61" s="4">
+        <v>0.176</v>
       </c>
       <c r="F61" s="4">
         <v>12</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
@@ -3469,20 +2971,20 @@
       <c r="D62" s="4">
         <v>17</v>
       </c>
-      <c r="E62" s="4" t="s">
-        <v>69</v>
+      <c r="E62" s="4">
+        <v>0.216</v>
       </c>
       <c r="F62" s="4">
         <v>14</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
@@ -3500,20 +3002,20 @@
       <c r="D63" s="4">
         <v>19</v>
       </c>
-      <c r="E63" s="4" t="s">
-        <v>36</v>
+      <c r="E63" s="4">
+        <v>0.076</v>
       </c>
       <c r="F63" s="4">
         <v>9</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
@@ -3531,20 +3033,20 @@
       <c r="D64" s="4">
         <v>18</v>
       </c>
-      <c r="E64" s="4" t="s">
-        <v>70</v>
+      <c r="E64" s="4">
+        <v>0.389</v>
       </c>
       <c r="F64" s="4">
         <v>17</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
@@ -3562,20 +3064,20 @@
       <c r="D65" s="4">
         <v>18</v>
       </c>
-      <c r="E65" s="4" t="s">
-        <v>28</v>
+      <c r="E65" s="4">
+        <v>0.087</v>
       </c>
       <c r="F65" s="4">
         <v>10</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
@@ -3593,20 +3095,20 @@
       <c r="D66" s="4">
         <v>21</v>
       </c>
-      <c r="E66" s="4" t="s">
-        <v>71</v>
+      <c r="E66" s="4">
+        <v>0.134</v>
       </c>
       <c r="F66" s="4">
         <v>12</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
@@ -3624,20 +3126,20 @@
       <c r="D67" s="4">
         <v>22</v>
       </c>
-      <c r="E67" s="4" t="s">
-        <v>71</v>
+      <c r="E67" s="4">
+        <v>0.134</v>
       </c>
       <c r="F67" s="4">
         <v>10</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
@@ -3655,20 +3157,20 @@
       <c r="D68" s="4">
         <v>22</v>
       </c>
-      <c r="E68" s="4" t="s">
-        <v>72</v>
+      <c r="E68" s="4">
+        <v>0.098</v>
       </c>
       <c r="F68" s="4">
         <v>9</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
@@ -3686,20 +3188,20 @@
       <c r="D69" s="4">
         <v>22</v>
       </c>
-      <c r="E69" s="4" t="s">
-        <v>73</v>
+      <c r="E69" s="4">
+        <v>0.096</v>
       </c>
       <c r="F69" s="4">
         <v>10</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
@@ -3717,20 +3219,20 @@
       <c r="D70" s="4">
         <v>20</v>
       </c>
-      <c r="E70" s="4" t="s">
-        <v>74</v>
+      <c r="E70" s="4">
+        <v>0.33</v>
       </c>
       <c r="F70" s="4">
         <v>15</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
@@ -3748,20 +3250,20 @@
       <c r="D71" s="4">
         <v>21</v>
       </c>
-      <c r="E71" s="4" t="s">
-        <v>75</v>
+      <c r="E71" s="4">
+        <v>0.095</v>
       </c>
       <c r="F71" s="4">
         <v>10</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
@@ -3779,20 +3281,20 @@
       <c r="D72" s="4">
         <v>20</v>
       </c>
-      <c r="E72" s="4" t="s">
-        <v>76</v>
+      <c r="E72" s="4">
+        <v>0.115</v>
       </c>
       <c r="F72" s="4">
         <v>11</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
@@ -3810,20 +3312,20 @@
       <c r="D73" s="4">
         <v>22</v>
       </c>
-      <c r="E73" s="4" t="s">
-        <v>77</v>
+      <c r="E73" s="4">
+        <v>0.312</v>
       </c>
       <c r="F73" s="4">
         <v>14</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
@@ -3841,20 +3343,20 @@
       <c r="D74" s="4">
         <v>3</v>
       </c>
-      <c r="E74" s="4" t="s">
-        <v>78</v>
+      <c r="E74" s="4">
+        <v>0.153</v>
       </c>
       <c r="F74" s="4">
         <v>11</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
@@ -3872,20 +3374,20 @@
       <c r="D75" s="4">
         <v>4</v>
       </c>
-      <c r="E75" s="4" t="s">
-        <v>66</v>
+      <c r="E75" s="4">
+        <v>0.163</v>
       </c>
       <c r="F75" s="4">
         <v>11</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
@@ -3903,20 +3405,20 @@
       <c r="D76" s="4">
         <v>5</v>
       </c>
-      <c r="E76" s="4" t="s">
-        <v>79</v>
+      <c r="E76" s="4">
+        <v>0.045</v>
       </c>
       <c r="F76" s="4">
         <v>7</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
@@ -3934,20 +3436,20 @@
       <c r="D77" s="4">
         <v>4</v>
       </c>
-      <c r="E77" s="4" t="s">
-        <v>80</v>
+      <c r="E77" s="4">
+        <v>0.084</v>
       </c>
       <c r="F77" s="4">
         <v>10</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J77" s="4"/>
       <c r="K77" s="4"/>
@@ -3965,20 +3467,20 @@
       <c r="D78" s="4">
         <v>5</v>
       </c>
-      <c r="E78" s="4" t="s">
-        <v>81</v>
+      <c r="E78" s="4">
+        <v>0.094</v>
       </c>
       <c r="F78" s="4">
         <v>9</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J78" s="4"/>
       <c r="K78" s="4"/>
@@ -3996,20 +3498,20 @@
       <c r="D79" s="4">
         <v>5</v>
       </c>
-      <c r="E79" s="4" t="s">
-        <v>82</v>
+      <c r="E79" s="4">
+        <v>0.234</v>
       </c>
       <c r="F79" s="4">
         <v>13</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J79" s="4"/>
       <c r="K79" s="4"/>
@@ -4027,20 +3529,20 @@
       <c r="D80" s="4">
         <v>5</v>
       </c>
-      <c r="E80" s="4" t="s">
-        <v>83</v>
+      <c r="E80" s="4">
+        <v>0.103</v>
       </c>
       <c r="F80" s="4">
         <v>10</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
@@ -4058,20 +3560,20 @@
       <c r="D81" s="4">
         <v>5</v>
       </c>
-      <c r="E81" s="4" t="s">
-        <v>84</v>
+      <c r="E81" s="4">
+        <v>0.114</v>
       </c>
       <c r="F81" s="4">
         <v>10</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
@@ -4089,20 +3591,20 @@
       <c r="D82" s="4">
         <v>4</v>
       </c>
-      <c r="E82" s="4" t="s">
-        <v>85</v>
+      <c r="E82" s="4">
+        <v>0.123</v>
       </c>
       <c r="F82" s="4">
         <v>12</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J82" s="4"/>
       <c r="K82" s="4"/>
@@ -4120,20 +3622,20 @@
       <c r="D83" s="4">
         <v>7</v>
       </c>
-      <c r="E83" s="4" t="s">
-        <v>86</v>
+      <c r="E83" s="4">
+        <v>0.172</v>
       </c>
       <c r="F83" s="4">
         <v>14</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J83" s="4"/>
       <c r="K83" s="4"/>
@@ -4151,20 +3653,20 @@
       <c r="D84" s="4">
         <v>8</v>
       </c>
-      <c r="E84" s="4" t="s">
-        <v>87</v>
+      <c r="E84" s="4">
+        <v>0.19</v>
       </c>
       <c r="F84" s="4">
         <v>13</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
@@ -4182,20 +3684,20 @@
       <c r="D85" s="4">
         <v>12</v>
       </c>
-      <c r="E85" s="4" t="s">
-        <v>88</v>
+      <c r="E85" s="4">
+        <v>0.165</v>
       </c>
       <c r="F85" s="4">
         <v>13</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
@@ -4213,20 +3715,20 @@
       <c r="D86" s="4">
         <v>14</v>
       </c>
-      <c r="E86" s="4" t="s">
-        <v>89</v>
+      <c r="E86" s="4">
+        <v>0.081</v>
       </c>
       <c r="F86" s="4">
         <v>9</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
@@ -4244,20 +3746,20 @@
       <c r="D87" s="4">
         <v>11</v>
       </c>
-      <c r="E87" s="4" t="s">
-        <v>90</v>
+      <c r="E87" s="4">
+        <v>0.225</v>
       </c>
       <c r="F87" s="4">
         <v>13</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
@@ -4275,20 +3777,20 @@
       <c r="D88" s="4">
         <v>12</v>
       </c>
-      <c r="E88" s="4" t="s">
-        <v>91</v>
+      <c r="E88" s="4">
+        <v>0.078</v>
       </c>
       <c r="F88" s="4">
         <v>9</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
@@ -4306,20 +3808,20 @@
       <c r="D89" s="4">
         <v>12</v>
       </c>
-      <c r="E89" s="4" t="s">
-        <v>92</v>
+      <c r="E89" s="4">
+        <v>0.051</v>
       </c>
       <c r="F89" s="4">
         <v>8</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
@@ -4337,20 +3839,20 @@
       <c r="D90" s="4">
         <v>13</v>
       </c>
-      <c r="E90" s="4" t="s">
-        <v>41</v>
+      <c r="E90" s="4">
+        <v>0.181</v>
       </c>
       <c r="F90" s="4">
         <v>12</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
@@ -4368,20 +3870,20 @@
       <c r="D91" s="4">
         <v>1</v>
       </c>
-      <c r="E91" s="4" t="s">
-        <v>93</v>
+      <c r="E91" s="4">
+        <v>0.299</v>
       </c>
       <c r="F91" s="4">
         <v>14</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
@@ -4399,20 +3901,20 @@
       <c r="D92" s="4">
         <v>2</v>
       </c>
-      <c r="E92" s="4" t="s">
-        <v>94</v>
+      <c r="E92" s="4">
+        <v>0.229</v>
       </c>
       <c r="F92" s="4">
         <v>15</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
@@ -4430,20 +3932,20 @@
       <c r="D93" s="4">
         <v>6</v>
       </c>
-      <c r="E93" s="4" t="s">
-        <v>95</v>
+      <c r="E93" s="4">
+        <v>0.079</v>
       </c>
       <c r="F93" s="4">
         <v>10</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
@@ -4461,20 +3963,20 @@
       <c r="D94" s="4">
         <v>8</v>
       </c>
-      <c r="E94" s="4" t="s">
-        <v>77</v>
+      <c r="E94" s="4">
+        <v>0.312</v>
       </c>
       <c r="F94" s="4">
         <v>16</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J94" s="4"/>
       <c r="K94" s="4"/>
@@ -4492,20 +3994,20 @@
       <c r="D95" s="4">
         <v>8</v>
       </c>
-      <c r="E95" s="4" t="s">
-        <v>80</v>
+      <c r="E95" s="4">
+        <v>0.084</v>
       </c>
       <c r="F95" s="4">
         <v>9</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J95" s="4"/>
       <c r="K95" s="4"/>
@@ -4523,20 +4025,20 @@
       <c r="D96" s="4">
         <v>4</v>
       </c>
-      <c r="E96" s="4" t="s">
-        <v>38</v>
+      <c r="E96" s="4">
+        <v>0.118</v>
       </c>
       <c r="F96" s="4">
         <v>11</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J96" s="4"/>
       <c r="K96" s="4"/>
@@ -4554,20 +4056,20 @@
       <c r="D97" s="4">
         <v>4</v>
       </c>
-      <c r="E97" s="4" t="s">
-        <v>96</v>
+      <c r="E97" s="4">
+        <v>0.148</v>
       </c>
       <c r="F97" s="4">
         <v>12</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J97" s="4"/>
       <c r="K97" s="4"/>
@@ -4585,20 +4087,20 @@
       <c r="D98" s="4">
         <v>7</v>
       </c>
-      <c r="E98" s="4" t="s">
-        <v>97</v>
+      <c r="E98" s="4">
+        <v>0.166</v>
       </c>
       <c r="F98" s="4">
         <v>12</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I98" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J98" s="4"/>
       <c r="K98" s="4"/>
@@ -4616,20 +4118,20 @@
       <c r="D99" s="4">
         <v>8</v>
       </c>
-      <c r="E99" s="4" t="s">
-        <v>98</v>
+      <c r="E99" s="4">
+        <v>0.17</v>
       </c>
       <c r="F99" s="4">
         <v>14</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J99" s="4"/>
       <c r="K99" s="4"/>
@@ -4647,20 +4149,20 @@
       <c r="D100" s="4">
         <v>8</v>
       </c>
-      <c r="E100" s="4" t="s">
-        <v>99</v>
+      <c r="E100" s="4">
+        <v>0.207</v>
       </c>
       <c r="F100" s="4">
         <v>12</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J100" s="4"/>
       <c r="K100" s="4"/>
@@ -4678,27 +4180,27 @@
       <c r="D101" s="4">
         <v>10</v>
       </c>
-      <c r="E101" s="4" t="s">
-        <v>100</v>
+      <c r="E101" s="4">
+        <v>0.245</v>
       </c>
       <c r="F101" s="4">
         <v>14</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J101" s="4"/>
       <c r="K101" s="4"/>
     </row>
     <row r="102" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A102" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B102" s="4">
         <v>1</v>
@@ -4709,27 +4211,27 @@
       <c r="D102" s="4">
         <v>1</v>
       </c>
-      <c r="E102" s="4" t="s">
-        <v>102</v>
+      <c r="E102" s="4">
+        <v>0.692</v>
       </c>
       <c r="F102" s="4">
         <v>18</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J102" s="4"/>
       <c r="K102" s="4"/>
     </row>
     <row r="103" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A103" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B103" s="4">
         <v>2</v>
@@ -4740,27 +4242,27 @@
       <c r="D103" s="4">
         <v>1</v>
       </c>
-      <c r="E103" s="4" t="s">
-        <v>103</v>
+      <c r="E103" s="4">
+        <v>0.265</v>
       </c>
       <c r="F103" s="4">
         <v>13</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J103" s="4"/>
       <c r="K103" s="4"/>
     </row>
     <row r="104" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A104" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B104" s="4">
         <v>3</v>
@@ -4771,27 +4273,27 @@
       <c r="D104" s="4">
         <v>4</v>
       </c>
-      <c r="E104" s="4" t="s">
-        <v>104</v>
+      <c r="E104" s="4">
+        <v>0.3</v>
       </c>
       <c r="F104" s="4">
         <v>15</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J104" s="4"/>
       <c r="K104" s="4"/>
     </row>
     <row r="105" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A105" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B105" s="4">
         <v>4</v>
@@ -4802,27 +4304,27 @@
       <c r="D105" s="4">
         <v>4</v>
       </c>
-      <c r="E105" s="4" t="s">
-        <v>105</v>
+      <c r="E105" s="4">
+        <v>0.341</v>
       </c>
       <c r="F105" s="4">
         <v>14</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J105" s="4"/>
       <c r="K105" s="4"/>
     </row>
     <row r="106" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A106" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B106" s="4">
         <v>5</v>
@@ -4833,27 +4335,27 @@
       <c r="D106" s="4">
         <v>4</v>
       </c>
-      <c r="E106" s="4" t="s">
-        <v>106</v>
+      <c r="E106" s="4">
+        <v>0.349</v>
       </c>
       <c r="F106" s="4">
         <v>15</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J106" s="4"/>
       <c r="K106" s="4"/>
     </row>
     <row r="107" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A107" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B107" s="4">
         <v>6</v>
@@ -4864,27 +4366,27 @@
       <c r="D107" s="4">
         <v>5</v>
       </c>
-      <c r="E107" s="4" t="s">
-        <v>107</v>
+      <c r="E107" s="4">
+        <v>0.451</v>
       </c>
       <c r="F107" s="4">
         <v>15</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J107" s="4"/>
       <c r="K107" s="4"/>
     </row>
     <row r="108" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A108" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B108" s="4">
         <v>7</v>
@@ -4895,27 +4397,27 @@
       <c r="D108" s="4">
         <v>3</v>
       </c>
-      <c r="E108" s="4" t="s">
-        <v>108</v>
+      <c r="E108" s="4">
+        <v>0.963</v>
       </c>
       <c r="F108" s="4">
         <v>21</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J108" s="4"/>
       <c r="K108" s="4"/>
     </row>
     <row r="109" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A109" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B109" s="4">
         <v>8</v>
@@ -4926,27 +4428,27 @@
       <c r="D109" s="4">
         <v>3</v>
       </c>
-      <c r="E109" s="4" t="s">
-        <v>109</v>
+      <c r="E109" s="4">
+        <v>0.327</v>
       </c>
       <c r="F109" s="4">
         <v>15</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J109" s="4"/>
       <c r="K109" s="4"/>
     </row>
     <row r="110" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A110" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B110" s="4">
         <v>9</v>
@@ -4957,27 +4459,27 @@
       <c r="D110" s="4">
         <v>4</v>
       </c>
-      <c r="E110" s="4" t="s">
-        <v>110</v>
+      <c r="E110" s="4">
+        <v>0.168</v>
       </c>
       <c r="F110" s="4">
         <v>11</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I110" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J110" s="4"/>
       <c r="K110" s="4"/>
     </row>
     <row r="111" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A111" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B111" s="4">
         <v>10</v>
@@ -4988,27 +4490,27 @@
       <c r="D111" s="4">
         <v>4</v>
       </c>
-      <c r="E111" s="4" t="s">
-        <v>43</v>
+      <c r="E111" s="4">
+        <v>0.129</v>
       </c>
       <c r="F111" s="4">
         <v>11</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I111" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J111" s="4"/>
       <c r="K111" s="4"/>
     </row>
     <row r="112" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A112" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B112" s="4">
         <v>11</v>
@@ -5019,27 +4521,27 @@
       <c r="D112" s="4">
         <v>4</v>
       </c>
-      <c r="E112" s="4" t="s">
-        <v>88</v>
+      <c r="E112" s="4">
+        <v>0.165</v>
       </c>
       <c r="F112" s="4">
         <v>12</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I112" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J112" s="4"/>
       <c r="K112" s="4"/>
     </row>
     <row r="113" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A113" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B113" s="4">
         <v>12</v>
@@ -5050,27 +4552,27 @@
       <c r="D113" s="4">
         <v>6</v>
       </c>
-      <c r="E113" s="4" t="s">
-        <v>111</v>
+      <c r="E113" s="4">
+        <v>0.271</v>
       </c>
       <c r="F113" s="4">
         <v>13</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I113" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J113" s="4"/>
       <c r="K113" s="4"/>
     </row>
     <row r="114" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A114" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B114" s="4">
         <v>13</v>
@@ -5081,27 +4583,27 @@
       <c r="D114" s="4">
         <v>3</v>
       </c>
-      <c r="E114" s="4" t="s">
-        <v>112</v>
+      <c r="E114" s="4">
+        <v>0.361</v>
       </c>
       <c r="F114" s="4">
         <v>15</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I114" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J114" s="4"/>
       <c r="K114" s="4"/>
     </row>
     <row r="115" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A115" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B115" s="4">
         <v>14</v>
@@ -5112,27 +4614,27 @@
       <c r="D115" s="4">
         <v>3</v>
       </c>
-      <c r="E115" s="4" t="s">
-        <v>113</v>
+      <c r="E115" s="4">
+        <v>0.965</v>
       </c>
       <c r="F115" s="4">
         <v>22</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I115" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J115" s="4"/>
       <c r="K115" s="4"/>
     </row>
     <row r="116" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A116" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B116" s="4">
         <v>15</v>
@@ -5143,27 +4645,27 @@
       <c r="D116" s="4">
         <v>3</v>
       </c>
-      <c r="E116" s="4" t="s">
-        <v>114</v>
+      <c r="E116" s="4">
+        <v>0.358</v>
       </c>
       <c r="F116" s="4">
         <v>15</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I116" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J116" s="4"/>
       <c r="K116" s="4"/>
     </row>
     <row r="117" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A117" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B117" s="4">
         <v>16</v>
@@ -5174,27 +4676,27 @@
       <c r="D117" s="4">
         <v>5</v>
       </c>
-      <c r="E117" s="4" t="s">
-        <v>115</v>
+      <c r="E117" s="4">
+        <v>1.123</v>
       </c>
       <c r="F117" s="4">
         <v>22</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I117" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J117" s="4"/>
       <c r="K117" s="4"/>
     </row>
     <row r="118" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A118" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B118" s="4">
         <v>17</v>
@@ -5205,27 +4707,27 @@
       <c r="D118" s="4">
         <v>4</v>
       </c>
-      <c r="E118" s="4" t="s">
-        <v>116</v>
+      <c r="E118" s="4">
+        <v>0.432</v>
       </c>
       <c r="F118" s="4">
         <v>16</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I118" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J118" s="4"/>
       <c r="K118" s="4"/>
     </row>
     <row r="119" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A119" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B119" s="4">
         <v>18</v>
@@ -5236,27 +4738,27 @@
       <c r="D119" s="4">
         <v>4</v>
       </c>
-      <c r="E119" s="4" t="s">
-        <v>117</v>
+      <c r="E119" s="4">
+        <v>0.463</v>
       </c>
       <c r="F119" s="4">
         <v>15</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I119" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J119" s="4"/>
       <c r="K119" s="4"/>
     </row>
     <row r="120" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A120" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B120" s="4">
         <v>19</v>
@@ -5267,27 +4769,27 @@
       <c r="D120" s="4">
         <v>4</v>
       </c>
-      <c r="E120" s="4" t="s">
-        <v>97</v>
+      <c r="E120" s="4">
+        <v>0.166</v>
       </c>
       <c r="F120" s="4">
         <v>12</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I120" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J120" s="4"/>
       <c r="K120" s="4"/>
     </row>
     <row r="121" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A121" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B121" s="4">
         <v>20</v>
@@ -5298,27 +4800,27 @@
       <c r="D121" s="4">
         <v>4</v>
       </c>
-      <c r="E121" s="4" t="s">
-        <v>118</v>
+      <c r="E121" s="4">
+        <v>0.175</v>
       </c>
       <c r="F121" s="4">
         <v>12</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I121" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J121" s="4"/>
       <c r="K121" s="4"/>
     </row>
     <row r="122" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A122" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B122" s="4">
         <v>21</v>
@@ -5329,27 +4831,27 @@
       <c r="D122" s="4">
         <v>2</v>
       </c>
-      <c r="E122" s="4" t="s">
-        <v>119</v>
+      <c r="E122" s="4">
+        <v>0.233</v>
       </c>
       <c r="F122" s="4">
         <v>13</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I122" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J122" s="4"/>
       <c r="K122" s="4"/>
     </row>
     <row r="123" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A123" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B123" s="4">
         <v>22</v>
@@ -5360,27 +4862,27 @@
       <c r="D123" s="4">
         <v>6</v>
       </c>
-      <c r="E123" s="4" t="s">
-        <v>120</v>
+      <c r="E123" s="4">
+        <v>0.221</v>
       </c>
       <c r="F123" s="4">
         <v>13</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I123" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J123" s="4"/>
       <c r="K123" s="4"/>
     </row>
     <row r="124" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A124" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B124" s="4">
         <v>23</v>
@@ -5391,27 +4893,27 @@
       <c r="D124" s="4">
         <v>4</v>
       </c>
-      <c r="E124" s="4" t="s">
-        <v>121</v>
+      <c r="E124" s="4">
+        <v>0.514</v>
       </c>
       <c r="F124" s="4">
         <v>17</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I124" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J124" s="4"/>
       <c r="K124" s="4"/>
     </row>
     <row r="125" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A125" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B125" s="4">
         <v>24</v>
@@ -5422,27 +4924,27 @@
       <c r="D125" s="4">
         <v>3</v>
       </c>
-      <c r="E125" s="4" t="s">
-        <v>122</v>
+      <c r="E125" s="4">
+        <v>0.269</v>
       </c>
       <c r="F125" s="4">
         <v>13</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I125" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J125" s="4"/>
       <c r="K125" s="4"/>
     </row>
     <row r="126" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A126" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B126" s="4">
         <v>25</v>
@@ -5453,27 +4955,27 @@
       <c r="D126" s="4">
         <v>3</v>
       </c>
-      <c r="E126" s="4" t="s">
-        <v>123</v>
+      <c r="E126" s="4">
+        <v>0.77</v>
       </c>
       <c r="F126" s="4">
         <v>17</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I126" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J126" s="4"/>
       <c r="K126" s="4"/>
     </row>
     <row r="127" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A127" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B127" s="4">
         <v>26</v>
@@ -5484,27 +4986,27 @@
       <c r="D127" s="4">
         <v>4</v>
       </c>
-      <c r="E127" s="4" t="s">
-        <v>124</v>
+      <c r="E127" s="4">
+        <v>0.217</v>
       </c>
       <c r="F127" s="4">
         <v>13</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I127" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J127" s="4"/>
       <c r="K127" s="4"/>
     </row>
     <row r="128" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A128" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B128" s="4">
         <v>27</v>
@@ -5515,27 +5017,27 @@
       <c r="D128" s="4">
         <v>4</v>
       </c>
-      <c r="E128" s="4" t="s">
-        <v>125</v>
+      <c r="E128" s="4">
+        <v>0.331</v>
       </c>
       <c r="F128" s="4">
         <v>15</v>
       </c>
       <c r="G128" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I128" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J128" s="4"/>
       <c r="K128" s="4"/>
     </row>
     <row r="129" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A129" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B129" s="4">
         <v>28</v>
@@ -5546,27 +5048,27 @@
       <c r="D129" s="4">
         <v>5</v>
       </c>
-      <c r="E129" s="4" t="s">
-        <v>54</v>
+      <c r="E129" s="4">
+        <v>0.177</v>
       </c>
       <c r="F129" s="4">
         <v>11</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I129" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J129" s="4"/>
       <c r="K129" s="4"/>
     </row>
     <row r="130" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A130" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B130" s="4">
         <v>29</v>
@@ -5577,27 +5079,27 @@
       <c r="D130" s="4">
         <v>5</v>
       </c>
-      <c r="E130" s="4" t="s">
-        <v>126</v>
+      <c r="E130" s="4">
+        <v>0.13</v>
       </c>
       <c r="F130" s="4">
         <v>10</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I130" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J130" s="4"/>
       <c r="K130" s="4"/>
     </row>
     <row r="131" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A131" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B131" s="4">
         <v>30</v>
@@ -5608,27 +5110,27 @@
       <c r="D131" s="4">
         <v>5</v>
       </c>
-      <c r="E131" s="4" t="s">
-        <v>74</v>
+      <c r="E131" s="4">
+        <v>0.33</v>
       </c>
       <c r="F131" s="4">
         <v>15</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I131" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J131" s="4"/>
       <c r="K131" s="4"/>
     </row>
     <row r="132" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A132" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B132" s="4">
         <v>31</v>
@@ -5639,27 +5141,27 @@
       <c r="D132" s="4">
         <v>5</v>
       </c>
-      <c r="E132" s="4" t="s">
-        <v>89</v>
+      <c r="E132" s="4">
+        <v>0.081</v>
       </c>
       <c r="F132" s="4">
         <v>9</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I132" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J132" s="4"/>
       <c r="K132" s="4"/>
     </row>
     <row r="133" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A133" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B133" s="4">
         <v>32</v>
@@ -5670,27 +5172,27 @@
       <c r="D133" s="4">
         <v>5</v>
       </c>
-      <c r="E133" s="4" t="s">
-        <v>127</v>
+      <c r="E133" s="4">
+        <v>0.434</v>
       </c>
       <c r="F133" s="4">
         <v>17</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I133" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J133" s="4"/>
       <c r="K133" s="4"/>
     </row>
     <row r="134" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A134" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B134" s="4">
         <v>33</v>
@@ -5701,27 +5203,27 @@
       <c r="D134" s="4">
         <v>1</v>
       </c>
-      <c r="E134" s="4" t="s">
-        <v>128</v>
+      <c r="E134" s="4">
+        <v>0.316</v>
       </c>
       <c r="F134" s="4">
         <v>14</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I134" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J134" s="4"/>
       <c r="K134" s="4"/>
     </row>
     <row r="135" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A135" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B135" s="4">
         <v>34</v>
@@ -5732,27 +5234,27 @@
       <c r="D135" s="4">
         <v>1</v>
       </c>
-      <c r="E135" s="4" t="s">
-        <v>62</v>
+      <c r="E135" s="4">
+        <v>0.423</v>
       </c>
       <c r="F135" s="4">
         <v>16</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I135" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J135" s="4"/>
       <c r="K135" s="4"/>
     </row>
     <row r="136" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A136" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B136" s="4">
         <v>35</v>
@@ -5763,27 +5265,27 @@
       <c r="D136" s="4">
         <v>3</v>
       </c>
-      <c r="E136" s="4" t="s">
-        <v>129</v>
+      <c r="E136" s="4">
+        <v>0.539</v>
       </c>
       <c r="F136" s="4">
         <v>17</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I136" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J136" s="4"/>
       <c r="K136" s="4"/>
     </row>
     <row r="137" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A137" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B137" s="4">
         <v>36</v>
@@ -5794,27 +5296,27 @@
       <c r="D137" s="4">
         <v>4</v>
       </c>
-      <c r="E137" s="4" t="s">
-        <v>130</v>
+      <c r="E137" s="4">
+        <v>0.488</v>
       </c>
       <c r="F137" s="4">
         <v>16</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I137" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J137" s="4"/>
       <c r="K137" s="4"/>
     </row>
     <row r="138" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A138" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B138" s="4">
         <v>37</v>
@@ -5825,27 +5327,27 @@
       <c r="D138" s="4">
         <v>3</v>
       </c>
-      <c r="E138" s="4" t="s">
-        <v>131</v>
+      <c r="E138" s="4">
+        <v>0.44</v>
       </c>
       <c r="F138" s="4">
         <v>17</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I138" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J138" s="4"/>
       <c r="K138" s="4"/>
     </row>
     <row r="139" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A139" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B139" s="4">
         <v>38</v>
@@ -5856,27 +5358,27 @@
       <c r="D139" s="4">
         <v>6</v>
       </c>
-      <c r="E139" s="4" t="s">
-        <v>132</v>
+      <c r="E139" s="4">
+        <v>0.387</v>
       </c>
       <c r="F139" s="4">
         <v>15</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H139" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I139" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J139" s="4"/>
       <c r="K139" s="4"/>
     </row>
     <row r="140" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A140" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B140" s="4">
         <v>39</v>
@@ -5887,27 +5389,27 @@
       <c r="D140" s="4">
         <v>6</v>
       </c>
-      <c r="E140" s="4" t="s">
-        <v>50</v>
+      <c r="E140" s="4">
+        <v>0.377</v>
       </c>
       <c r="F140" s="4">
         <v>15</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I140" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J140" s="4"/>
       <c r="K140" s="4"/>
     </row>
     <row r="141" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A141" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B141" s="4">
         <v>40</v>
@@ -5918,27 +5420,27 @@
       <c r="D141" s="4">
         <v>5</v>
       </c>
-      <c r="E141" s="4" t="s">
-        <v>128</v>
+      <c r="E141" s="4">
+        <v>0.316</v>
       </c>
       <c r="F141" s="4">
         <v>15</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I141" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J141" s="4"/>
       <c r="K141" s="4"/>
     </row>
     <row r="142" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A142" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B142" s="4">
         <v>41</v>
@@ -5949,27 +5451,27 @@
       <c r="D142" s="4">
         <v>4</v>
       </c>
-      <c r="E142" s="4" t="s">
-        <v>133</v>
+      <c r="E142" s="4">
+        <v>0.135</v>
       </c>
       <c r="F142" s="4">
         <v>11</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H142" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I142" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J142" s="4"/>
       <c r="K142" s="4"/>
     </row>
     <row r="143" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A143" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B143" s="4">
         <v>42</v>
@@ -5980,27 +5482,27 @@
       <c r="D143" s="4">
         <v>7</v>
       </c>
-      <c r="E143" s="4" t="s">
-        <v>134</v>
+      <c r="E143" s="4">
+        <v>0.322</v>
       </c>
       <c r="F143" s="4">
         <v>14</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I143" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J143" s="4"/>
       <c r="K143" s="4"/>
     </row>
     <row r="144" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A144" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B144" s="4">
         <v>43</v>
@@ -6011,27 +5513,27 @@
       <c r="D144" s="4">
         <v>5</v>
       </c>
-      <c r="E144" s="4" t="s">
-        <v>135</v>
+      <c r="E144" s="4">
+        <v>0.375</v>
       </c>
       <c r="F144" s="4">
         <v>16</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H144" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I144" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J144" s="4"/>
       <c r="K144" s="4"/>
     </row>
     <row r="145" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A145" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B145" s="4">
         <v>44</v>
@@ -6042,27 +5544,27 @@
       <c r="D145" s="4">
         <v>2</v>
       </c>
-      <c r="E145" s="4" t="s">
-        <v>76</v>
+      <c r="E145" s="4">
+        <v>0.115</v>
       </c>
       <c r="F145" s="4">
         <v>10</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I145" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J145" s="4"/>
       <c r="K145" s="4"/>
     </row>
     <row r="146" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A146" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B146" s="4">
         <v>45</v>
@@ -6073,27 +5575,27 @@
       <c r="D146" s="4">
         <v>9</v>
       </c>
-      <c r="E146" s="4" t="s">
-        <v>136</v>
+      <c r="E146" s="4">
+        <v>0.36</v>
       </c>
       <c r="F146" s="4">
         <v>15</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I146" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J146" s="4"/>
       <c r="K146" s="4"/>
     </row>
     <row r="147" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A147" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B147" s="4">
         <v>46</v>
@@ -6104,27 +5606,27 @@
       <c r="D147" s="4">
         <v>6</v>
       </c>
-      <c r="E147" s="4" t="s">
-        <v>137</v>
+      <c r="E147" s="4">
+        <v>0.309</v>
       </c>
       <c r="F147" s="4">
         <v>15</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I147" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J147" s="4"/>
       <c r="K147" s="4"/>
     </row>
     <row r="148" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A148" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B148" s="4">
         <v>47</v>
@@ -6135,27 +5637,27 @@
       <c r="D148" s="4">
         <v>6</v>
       </c>
-      <c r="E148" s="4" t="s">
-        <v>138</v>
+      <c r="E148" s="4">
+        <v>0.242</v>
       </c>
       <c r="F148" s="4">
         <v>13</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H148" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I148" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J148" s="4"/>
       <c r="K148" s="4"/>
     </row>
     <row r="149" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A149" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B149" s="4">
         <v>48</v>
@@ -6166,27 +5668,27 @@
       <c r="D149" s="4">
         <v>2</v>
       </c>
-      <c r="E149" s="4" t="s">
-        <v>139</v>
+      <c r="E149" s="4">
+        <v>0.595</v>
       </c>
       <c r="F149" s="4">
         <v>18</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I149" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J149" s="4"/>
       <c r="K149" s="4"/>
     </row>
     <row r="150" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A150" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B150" s="4">
         <v>49</v>
@@ -6197,27 +5699,27 @@
       <c r="D150" s="4">
         <v>1</v>
       </c>
-      <c r="E150" s="4" t="s">
-        <v>140</v>
+      <c r="E150" s="4">
+        <v>0.187</v>
       </c>
       <c r="F150" s="4">
         <v>12</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I150" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J150" s="4"/>
       <c r="K150" s="4"/>
     </row>
     <row r="151" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A151" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B151" s="4">
         <v>50</v>
@@ -6228,27 +5730,27 @@
       <c r="D151" s="4">
         <v>7</v>
       </c>
-      <c r="E151" s="4" t="s">
-        <v>141</v>
+      <c r="E151" s="4">
+        <v>0.186</v>
       </c>
       <c r="F151" s="4">
         <v>12</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H151" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I151" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J151" s="4"/>
       <c r="K151" s="4"/>
     </row>
     <row r="152" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A152" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B152" s="4">
         <v>51</v>
@@ -6259,27 +5761,27 @@
       <c r="D152" s="4">
         <v>4</v>
       </c>
-      <c r="E152" s="4" t="s">
-        <v>142</v>
+      <c r="E152" s="4">
+        <v>2.044</v>
       </c>
       <c r="F152" s="4">
         <v>27</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I152" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J152" s="4"/>
       <c r="K152" s="4"/>
     </row>
     <row r="153" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A153" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B153" s="4">
         <v>52</v>
@@ -6290,27 +5792,27 @@
       <c r="D153" s="4">
         <v>1</v>
       </c>
-      <c r="E153" s="4" t="s">
-        <v>143</v>
+      <c r="E153" s="4">
+        <v>0.092</v>
       </c>
       <c r="F153" s="4">
         <v>15</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H153" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I153" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J153" s="4"/>
       <c r="K153" s="4"/>
     </row>
     <row r="154" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A154" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B154" s="4">
         <v>53</v>
@@ -6321,27 +5823,27 @@
       <c r="D154" s="4">
         <v>2</v>
       </c>
-      <c r="E154" s="4" t="s">
-        <v>144</v>
+      <c r="E154" s="4">
+        <v>1.086</v>
       </c>
       <c r="F154" s="4">
         <v>23</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H154" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I154" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J154" s="4"/>
       <c r="K154" s="4"/>
     </row>
     <row r="155" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A155" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B155" s="4">
         <v>54</v>
@@ -6352,27 +5854,27 @@
       <c r="D155" s="4">
         <v>2</v>
       </c>
-      <c r="E155" s="4" t="s">
-        <v>145</v>
+      <c r="E155" s="4">
+        <v>0.295</v>
       </c>
       <c r="F155" s="4">
         <v>15</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H155" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I155" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J155" s="4"/>
       <c r="K155" s="4"/>
     </row>
     <row r="156" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A156" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B156" s="4">
         <v>55</v>
@@ -6383,27 +5885,27 @@
       <c r="D156" s="4">
         <v>4</v>
       </c>
-      <c r="E156" s="4" t="s">
-        <v>146</v>
+      <c r="E156" s="4">
+        <v>0.795</v>
       </c>
       <c r="F156" s="4">
         <v>20</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H156" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I156" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J156" s="4"/>
       <c r="K156" s="4"/>
     </row>
     <row r="157" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A157" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B157" s="4">
         <v>56</v>
@@ -6414,27 +5916,27 @@
       <c r="D157" s="4">
         <v>4</v>
       </c>
-      <c r="E157" s="4" t="s">
-        <v>147</v>
+      <c r="E157" s="4">
+        <v>0.417</v>
       </c>
       <c r="F157" s="4">
         <v>16</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H157" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I157" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J157" s="4"/>
       <c r="K157" s="4"/>
     </row>
     <row r="158" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A158" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B158" s="4">
         <v>57</v>
@@ -6445,27 +5947,27 @@
       <c r="D158" s="4">
         <v>4</v>
       </c>
-      <c r="E158" s="4" t="s">
-        <v>148</v>
+      <c r="E158" s="4">
+        <v>0.92</v>
       </c>
       <c r="F158" s="4">
         <v>19</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H158" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I158" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J158" s="4"/>
       <c r="K158" s="4"/>
     </row>
     <row r="159" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A159" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B159" s="4">
         <v>58</v>
@@ -6476,27 +5978,27 @@
       <c r="D159" s="4">
         <v>6</v>
       </c>
-      <c r="E159" s="4" t="s">
-        <v>149</v>
+      <c r="E159" s="4">
+        <v>0.989</v>
       </c>
       <c r="F159" s="4">
         <v>21</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H159" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I159" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J159" s="4"/>
       <c r="K159" s="4"/>
     </row>
     <row r="160" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A160" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B160" s="4">
         <v>59</v>
@@ -6507,27 +6009,27 @@
       <c r="D160" s="4">
         <v>6</v>
       </c>
-      <c r="E160" s="4" t="s">
-        <v>150</v>
+      <c r="E160" s="4">
+        <v>0.201</v>
       </c>
       <c r="F160" s="4">
         <v>13</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H160" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I160" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J160" s="4"/>
       <c r="K160" s="4"/>
     </row>
     <row r="161" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A161" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B161" s="4">
         <v>60</v>
@@ -6538,27 +6040,27 @@
       <c r="D161" s="4">
         <v>9</v>
       </c>
-      <c r="E161" s="4" t="s">
-        <v>151</v>
+      <c r="E161" s="4">
+        <v>0.226</v>
       </c>
       <c r="F161" s="4">
         <v>12</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H161" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I161" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J161" s="4"/>
       <c r="K161" s="4"/>
     </row>
     <row r="162" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A162" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B162" s="4">
         <v>61</v>
@@ -6569,27 +6071,27 @@
       <c r="D162" s="4">
         <v>9</v>
       </c>
-      <c r="E162" s="4" t="s">
-        <v>152</v>
+      <c r="E162" s="4">
+        <v>0.164</v>
       </c>
       <c r="F162" s="4">
         <v>12</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H162" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I162" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J162" s="4"/>
       <c r="K162" s="4"/>
     </row>
     <row r="163" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A163" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B163" s="4">
         <v>62</v>
@@ -6600,27 +6102,27 @@
       <c r="D163" s="4">
         <v>3</v>
       </c>
-      <c r="E163" s="4" t="s">
-        <v>153</v>
+      <c r="E163" s="4">
+        <v>0.664</v>
       </c>
       <c r="F163" s="4">
         <v>19</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H163" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I163" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J163" s="4"/>
       <c r="K163" s="4"/>
     </row>
     <row r="164" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A164" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B164" s="4">
         <v>63</v>
@@ -6631,27 +6133,27 @@
       <c r="D164" s="4">
         <v>3</v>
       </c>
-      <c r="E164" s="4" t="s">
-        <v>154</v>
+      <c r="E164" s="4">
+        <v>0.161</v>
       </c>
       <c r="F164" s="4">
         <v>12</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H164" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I164" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J164" s="4"/>
       <c r="K164" s="4"/>
     </row>
     <row r="165" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A165" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B165" s="4">
         <v>64</v>
@@ -6662,27 +6164,27 @@
       <c r="D165" s="4">
         <v>4</v>
       </c>
-      <c r="E165" s="4" t="s">
-        <v>50</v>
+      <c r="E165" s="4">
+        <v>0.377</v>
       </c>
       <c r="F165" s="4">
         <v>16</v>
       </c>
       <c r="G165" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H165" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I165" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J165" s="4"/>
       <c r="K165" s="4"/>
     </row>
     <row r="166" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A166" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B166" s="4">
         <v>65</v>
@@ -6693,27 +6195,27 @@
       <c r="D166" s="4">
         <v>3</v>
       </c>
-      <c r="E166" s="4" t="s">
-        <v>155</v>
+      <c r="E166" s="4">
+        <v>0.87</v>
       </c>
       <c r="F166" s="4">
         <v>21</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H166" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I166" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J166" s="4"/>
       <c r="K166" s="4"/>
     </row>
     <row r="167" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A167" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B167" s="4">
         <v>66</v>
@@ -6724,27 +6226,27 @@
       <c r="D167" s="4">
         <v>5</v>
       </c>
-      <c r="E167" s="4" t="s">
-        <v>135</v>
+      <c r="E167" s="4">
+        <v>0.375</v>
       </c>
       <c r="F167" s="4">
         <v>16</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H167" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I167" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J167" s="4"/>
       <c r="K167" s="4"/>
     </row>
     <row r="168" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A168" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B168" s="4">
         <v>67</v>
@@ -6755,27 +6257,27 @@
       <c r="D168" s="4">
         <v>6</v>
       </c>
-      <c r="E168" s="4" t="s">
-        <v>96</v>
+      <c r="E168" s="4">
+        <v>0.148</v>
       </c>
       <c r="F168" s="4">
         <v>11</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H168" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I168" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J168" s="4"/>
       <c r="K168" s="4"/>
     </row>
     <row r="169" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A169" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B169" s="4">
         <v>68</v>
@@ -6786,27 +6288,27 @@
       <c r="D169" s="4">
         <v>4</v>
       </c>
-      <c r="E169" s="4" t="s">
-        <v>156</v>
+      <c r="E169" s="4">
+        <v>0.616</v>
       </c>
       <c r="F169" s="4">
         <v>19</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H169" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I169" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J169" s="4"/>
       <c r="K169" s="4"/>
     </row>
     <row r="170" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A170" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B170" s="4">
         <v>69</v>
@@ -6817,27 +6319,27 @@
       <c r="D170" s="4">
         <v>3</v>
       </c>
-      <c r="E170" s="4" t="s">
-        <v>157</v>
+      <c r="E170" s="4">
+        <v>0.246</v>
       </c>
       <c r="F170" s="4">
         <v>18</v>
       </c>
       <c r="G170" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H170" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I170" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J170" s="4"/>
       <c r="K170" s="4"/>
     </row>
     <row r="171" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A171" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B171" s="4">
         <v>70</v>
@@ -6848,27 +6350,27 @@
       <c r="D171" s="4">
         <v>4</v>
       </c>
-      <c r="E171" s="4" t="s">
-        <v>94</v>
+      <c r="E171" s="4">
+        <v>0.229</v>
       </c>
       <c r="F171" s="4">
         <v>13</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H171" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I171" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J171" s="4"/>
       <c r="K171" s="4"/>
     </row>
     <row r="172" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A172" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B172" s="4">
         <v>71</v>
@@ -6879,27 +6381,27 @@
       <c r="D172" s="4">
         <v>8</v>
       </c>
-      <c r="E172" s="4" t="s">
-        <v>158</v>
+      <c r="E172" s="4">
+        <v>0.481</v>
       </c>
       <c r="F172" s="4">
         <v>16</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H172" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I172" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J172" s="4"/>
       <c r="K172" s="4"/>
     </row>
     <row r="173" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A173" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B173" s="4">
         <v>72</v>
@@ -6910,27 +6412,27 @@
       <c r="D173" s="4">
         <v>7</v>
       </c>
-      <c r="E173" s="4" t="s">
-        <v>159</v>
+      <c r="E173" s="4">
+        <v>0.55</v>
       </c>
       <c r="F173" s="4">
         <v>17</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H173" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I173" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J173" s="4"/>
       <c r="K173" s="4"/>
     </row>
     <row r="174" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A174" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B174" s="4">
         <v>73</v>
@@ -6941,27 +6443,27 @@
       <c r="D174" s="4">
         <v>7</v>
       </c>
-      <c r="E174" s="4" t="s">
-        <v>76</v>
+      <c r="E174" s="4">
+        <v>0.115</v>
       </c>
       <c r="F174" s="4">
         <v>10</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H174" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I174" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J174" s="4"/>
       <c r="K174" s="4"/>
     </row>
     <row r="175" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A175" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B175" s="4">
         <v>74</v>
@@ -6972,27 +6474,27 @@
       <c r="D175" s="4">
         <v>5</v>
       </c>
-      <c r="E175" s="4" t="s">
-        <v>160</v>
+      <c r="E175" s="4">
+        <v>1.076</v>
       </c>
       <c r="F175" s="4">
         <v>24</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H175" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I175" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J175" s="4"/>
       <c r="K175" s="4"/>
     </row>
     <row r="176" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A176" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B176" s="4">
         <v>75</v>
@@ -7003,27 +6505,27 @@
       <c r="D176" s="4">
         <v>7</v>
       </c>
-      <c r="E176" s="4" t="s">
-        <v>104</v>
+      <c r="E176" s="4">
+        <v>0.3</v>
       </c>
       <c r="F176" s="4">
         <v>15</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H176" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I176" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J176" s="4"/>
       <c r="K176" s="4"/>
     </row>
     <row r="177" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A177" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B177" s="4">
         <v>76</v>
@@ -7034,27 +6536,27 @@
       <c r="D177" s="4">
         <v>3</v>
       </c>
-      <c r="E177" s="4" t="s">
-        <v>93</v>
+      <c r="E177" s="4">
+        <v>0.299</v>
       </c>
       <c r="F177" s="4">
         <v>16</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H177" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I177" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J177" s="4"/>
       <c r="K177" s="4"/>
     </row>
     <row r="178" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A178" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B178" s="4">
         <v>77</v>
@@ -7065,27 +6567,27 @@
       <c r="D178" s="4">
         <v>6</v>
       </c>
-      <c r="E178" s="4" t="s">
-        <v>161</v>
+      <c r="E178" s="4">
+        <v>0.324</v>
       </c>
       <c r="F178" s="4">
         <v>14</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H178" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I178" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J178" s="4"/>
       <c r="K178" s="4"/>
     </row>
     <row r="179" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A179" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B179" s="4">
         <v>78</v>
@@ -7096,27 +6598,27 @@
       <c r="D179" s="4">
         <v>2</v>
       </c>
-      <c r="E179" s="4" t="s">
-        <v>162</v>
+      <c r="E179" s="4">
+        <v>0.433</v>
       </c>
       <c r="F179" s="4">
         <v>16</v>
       </c>
       <c r="G179" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H179" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I179" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J179" s="4"/>
       <c r="K179" s="4"/>
     </row>
     <row r="180" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A180" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B180" s="4">
         <v>79</v>
@@ -7127,27 +6629,27 @@
       <c r="D180" s="4">
         <v>4</v>
       </c>
-      <c r="E180" s="4" t="s">
-        <v>35</v>
+      <c r="E180" s="4">
+        <v>0.288</v>
       </c>
       <c r="F180" s="4">
         <v>14</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H180" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I180" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J180" s="4"/>
       <c r="K180" s="4"/>
     </row>
     <row r="181" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A181" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B181" s="4">
         <v>80</v>
@@ -7158,27 +6660,27 @@
       <c r="D181" s="4">
         <v>4</v>
       </c>
-      <c r="E181" s="4" t="s">
-        <v>43</v>
+      <c r="E181" s="4">
+        <v>0.129</v>
       </c>
       <c r="F181" s="4">
         <v>10</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H181" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I181" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J181" s="4"/>
       <c r="K181" s="4"/>
     </row>
     <row r="182" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A182" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B182" s="4">
         <v>81</v>
@@ -7189,27 +6691,27 @@
       <c r="D182" s="4">
         <v>4</v>
       </c>
-      <c r="E182" s="4" t="s">
-        <v>163</v>
+      <c r="E182" s="4">
+        <v>0.264</v>
       </c>
       <c r="F182" s="4">
         <v>13</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H182" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I182" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J182" s="4"/>
       <c r="K182" s="4"/>
     </row>
     <row r="183" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A183" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B183" s="4">
         <v>82</v>
@@ -7220,27 +6722,27 @@
       <c r="D183" s="4">
         <v>3</v>
       </c>
-      <c r="E183" s="4" t="s">
-        <v>164</v>
+      <c r="E183" s="4">
+        <v>0.669</v>
       </c>
       <c r="F183" s="4">
         <v>18</v>
       </c>
       <c r="G183" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H183" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I183" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J183" s="4"/>
       <c r="K183" s="4"/>
     </row>
     <row r="184" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A184" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B184" s="4">
         <v>83</v>
@@ -7251,27 +6753,27 @@
       <c r="D184" s="4">
         <v>7</v>
       </c>
-      <c r="E184" s="4" t="s">
-        <v>165</v>
+      <c r="E184" s="4">
+        <v>0.619</v>
       </c>
       <c r="F184" s="4">
         <v>18</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H184" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I184" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J184" s="4"/>
       <c r="K184" s="4"/>
     </row>
     <row r="185" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A185" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B185" s="4">
         <v>84</v>
@@ -7282,27 +6784,27 @@
       <c r="D185" s="4">
         <v>7</v>
       </c>
-      <c r="E185" s="4" t="s">
-        <v>166</v>
+      <c r="E185" s="4">
+        <v>0.405</v>
       </c>
       <c r="F185" s="4">
         <v>16</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H185" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I185" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J185" s="4"/>
       <c r="K185" s="4"/>
     </row>
     <row r="186" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A186" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B186" s="4">
         <v>85</v>
@@ -7313,27 +6815,27 @@
       <c r="D186" s="4">
         <v>4</v>
       </c>
-      <c r="E186" s="4" t="s">
-        <v>167</v>
+      <c r="E186" s="4">
+        <v>0.21</v>
       </c>
       <c r="F186" s="4">
         <v>13</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H186" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I186" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J186" s="4"/>
       <c r="K186" s="4"/>
     </row>
     <row r="187" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A187" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B187" s="4">
         <v>86</v>
@@ -7344,27 +6846,27 @@
       <c r="D187" s="4">
         <v>3</v>
       </c>
-      <c r="E187" s="4" t="s">
-        <v>168</v>
+      <c r="E187" s="4">
+        <v>0.091</v>
       </c>
       <c r="F187" s="4">
         <v>10</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H187" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I187" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J187" s="4"/>
       <c r="K187" s="4"/>
     </row>
     <row r="188" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A188" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B188" s="4">
         <v>87</v>
@@ -7375,27 +6877,27 @@
       <c r="D188" s="4">
         <v>3</v>
       </c>
-      <c r="E188" s="4" t="s">
-        <v>169</v>
+      <c r="E188" s="4">
+        <v>0.215</v>
       </c>
       <c r="F188" s="4">
         <v>13</v>
       </c>
       <c r="G188" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H188" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I188" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J188" s="4"/>
       <c r="K188" s="4"/>
     </row>
     <row r="189" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A189" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B189" s="4">
         <v>88</v>
@@ -7406,27 +6908,27 @@
       <c r="D189" s="4">
         <v>5</v>
       </c>
-      <c r="E189" s="4" t="s">
-        <v>170</v>
+      <c r="E189" s="4">
+        <v>0.37</v>
       </c>
       <c r="F189" s="4">
         <v>11</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H189" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I189" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J189" s="4"/>
       <c r="K189" s="4"/>
     </row>
     <row r="190" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A190" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B190" s="4">
         <v>89</v>
@@ -7437,27 +6939,27 @@
       <c r="D190" s="4">
         <v>8</v>
       </c>
-      <c r="E190" s="4" t="s">
-        <v>171</v>
+      <c r="E190" s="4">
+        <v>1.385</v>
       </c>
       <c r="F190" s="4">
         <v>24</v>
       </c>
       <c r="G190" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H190" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I190" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J190" s="4"/>
       <c r="K190" s="4"/>
     </row>
     <row r="191" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A191" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B191" s="4">
         <v>90</v>
@@ -7468,27 +6970,27 @@
       <c r="D191" s="4">
         <v>9</v>
       </c>
-      <c r="E191" s="4" t="s">
-        <v>172</v>
+      <c r="E191" s="4">
+        <v>1.136</v>
       </c>
       <c r="F191" s="4">
         <v>22</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H191" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I191" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J191" s="4"/>
       <c r="K191" s="4"/>
     </row>
     <row r="192" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A192" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B192" s="4">
         <v>91</v>
@@ -7499,27 +7001,27 @@
       <c r="D192" s="4">
         <v>8</v>
       </c>
-      <c r="E192" s="4" t="s">
-        <v>173</v>
+      <c r="E192" s="4">
+        <v>0.465</v>
       </c>
       <c r="F192" s="4">
         <v>17</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H192" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I192" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J192" s="4"/>
       <c r="K192" s="4"/>
     </row>
     <row r="193" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A193" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B193" s="4">
         <v>92</v>
@@ -7530,27 +7032,27 @@
       <c r="D193" s="4">
         <v>8</v>
       </c>
-      <c r="E193" s="4" t="s">
-        <v>174</v>
+      <c r="E193" s="4">
+        <v>0.536</v>
       </c>
       <c r="F193" s="4">
         <v>16</v>
       </c>
       <c r="G193" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H193" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I193" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J193" s="4"/>
       <c r="K193" s="4"/>
     </row>
     <row r="194" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A194" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B194" s="4">
         <v>93</v>
@@ -7561,27 +7063,27 @@
       <c r="D194" s="4">
         <v>7</v>
       </c>
-      <c r="E194" s="4" t="s">
-        <v>175</v>
+      <c r="E194" s="4">
+        <v>0.307</v>
       </c>
       <c r="F194" s="4">
         <v>14</v>
       </c>
       <c r="G194" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H194" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I194" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J194" s="4"/>
       <c r="K194" s="4"/>
     </row>
     <row r="195" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A195" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B195" s="4">
         <v>94</v>
@@ -7592,27 +7094,27 @@
       <c r="D195" s="4">
         <v>8</v>
       </c>
-      <c r="E195" s="4" t="s">
-        <v>176</v>
+      <c r="E195" s="4">
+        <v>0.162</v>
       </c>
       <c r="F195" s="4">
         <v>11</v>
       </c>
       <c r="G195" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H195" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I195" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J195" s="4"/>
       <c r="K195" s="4"/>
     </row>
     <row r="196" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A196" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B196" s="4">
         <v>95</v>
@@ -7623,27 +7125,27 @@
       <c r="D196" s="4">
         <v>8</v>
       </c>
-      <c r="E196" s="4" t="s">
-        <v>177</v>
+      <c r="E196" s="4">
+        <v>0.191</v>
       </c>
       <c r="F196" s="4">
         <v>12</v>
       </c>
       <c r="G196" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H196" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I196" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J196" s="4"/>
       <c r="K196" s="4"/>
     </row>
     <row r="197" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A197" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B197" s="4">
         <v>96</v>
@@ -7654,27 +7156,27 @@
       <c r="D197" s="4">
         <v>6</v>
       </c>
-      <c r="E197" s="4" t="s">
-        <v>130</v>
+      <c r="E197" s="4">
+        <v>0.488</v>
       </c>
       <c r="F197" s="4">
         <v>16</v>
       </c>
       <c r="G197" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H197" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I197" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J197" s="4"/>
       <c r="K197" s="4"/>
     </row>
     <row r="198" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A198" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B198" s="4">
         <v>97</v>
@@ -7685,27 +7187,27 @@
       <c r="D198" s="4">
         <v>11</v>
       </c>
-      <c r="E198" s="4" t="s">
-        <v>178</v>
+      <c r="E198" s="4">
+        <v>2.47</v>
       </c>
       <c r="F198" s="4">
         <v>31</v>
       </c>
       <c r="G198" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H198" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I198" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J198" s="4"/>
       <c r="K198" s="4"/>
     </row>
     <row r="199" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A199" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B199" s="4">
         <v>98</v>
@@ -7716,27 +7218,27 @@
       <c r="D199" s="4">
         <v>7</v>
       </c>
-      <c r="E199" s="4" t="s">
-        <v>179</v>
+      <c r="E199" s="4">
+        <v>0.357</v>
       </c>
       <c r="F199" s="4">
         <v>15</v>
       </c>
       <c r="G199" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H199" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I199" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J199" s="4"/>
       <c r="K199" s="4"/>
     </row>
     <row r="200" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A200" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B200" s="4">
         <v>99</v>
@@ -7747,27 +7249,27 @@
       <c r="D200" s="4">
         <v>8</v>
       </c>
-      <c r="E200" s="4" t="s">
-        <v>180</v>
+      <c r="E200" s="4">
+        <v>0.356</v>
       </c>
       <c r="F200" s="4">
         <v>15</v>
       </c>
       <c r="G200" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H200" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I200" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J200" s="4"/>
       <c r="K200" s="4"/>
     </row>
     <row r="201" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A201" s="4" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B201" s="4">
         <v>100</v>
@@ -7778,27 +7280,27 @@
       <c r="D201" s="4">
         <v>7</v>
       </c>
-      <c r="E201" s="4" t="s">
-        <v>181</v>
+      <c r="E201" s="4">
+        <v>0.192</v>
       </c>
       <c r="F201" s="4">
         <v>12</v>
       </c>
       <c r="G201" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H201" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I201" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J201" s="4"/>
       <c r="K201" s="4"/>
     </row>
     <row r="202" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A202" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B202" s="4">
         <v>1</v>
@@ -7816,20 +7318,20 @@
         <v>11</v>
       </c>
       <c r="G202" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H202" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I202" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J202" s="4"/>
       <c r="K202" s="4"/>
     </row>
     <row r="203" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A203" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B203" s="4">
         <v>2</v>
@@ -7847,20 +7349,20 @@
         <v>14</v>
       </c>
       <c r="G203" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H203" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I203" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J203" s="4"/>
       <c r="K203" s="4"/>
     </row>
     <row r="204" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A204" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B204" s="4">
         <v>3</v>
@@ -7878,20 +7380,20 @@
         <v>14</v>
       </c>
       <c r="G204" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H204" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I204" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J204" s="4"/>
       <c r="K204" s="4"/>
     </row>
     <row r="205" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A205" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B205" s="4">
         <v>4</v>
@@ -7909,20 +7411,20 @@
         <v>15</v>
       </c>
       <c r="G205" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H205" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I205" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J205" s="4"/>
       <c r="K205" s="4"/>
     </row>
     <row r="206" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A206" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B206" s="4">
         <v>5</v>
@@ -7940,20 +7442,20 @@
         <v>11</v>
       </c>
       <c r="G206" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H206" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I206" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J206" s="4"/>
       <c r="K206" s="4"/>
     </row>
     <row r="207" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A207" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B207" s="4">
         <v>6</v>
@@ -7971,20 +7473,20 @@
         <v>19</v>
       </c>
       <c r="G207" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H207" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I207" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J207" s="4"/>
       <c r="K207" s="4"/>
     </row>
     <row r="208" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A208" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B208" s="4">
         <v>7</v>
@@ -8002,20 +7504,20 @@
         <v>16</v>
       </c>
       <c r="G208" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H208" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I208" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J208" s="4"/>
       <c r="K208" s="4"/>
     </row>
     <row r="209" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A209" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B209" s="4">
         <v>8</v>
@@ -8033,20 +7535,20 @@
         <v>22</v>
       </c>
       <c r="G209" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H209" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I209" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J209" s="4"/>
       <c r="K209" s="4"/>
     </row>
     <row r="210" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A210" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B210" s="4">
         <v>9</v>
@@ -8064,20 +7566,20 @@
         <v>22</v>
       </c>
       <c r="G210" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H210" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I210" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J210" s="4"/>
       <c r="K210" s="4"/>
     </row>
     <row r="211" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A211" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B211" s="4">
         <v>10</v>
@@ -8095,20 +7597,20 @@
         <v>21</v>
       </c>
       <c r="G211" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H211" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I211" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J211" s="4"/>
       <c r="K211" s="4"/>
     </row>
     <row r="212" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A212" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B212" s="4">
         <v>11</v>
@@ -8126,20 +7628,20 @@
         <v>17</v>
       </c>
       <c r="G212" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H212" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I212" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J212" s="4"/>
       <c r="K212" s="4"/>
     </row>
     <row r="213" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A213" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B213" s="4">
         <v>12</v>
@@ -8157,20 +7659,20 @@
         <v>15</v>
       </c>
       <c r="G213" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H213" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I213" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J213" s="4"/>
       <c r="K213" s="4"/>
     </row>
     <row r="214" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A214" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B214" s="4">
         <v>13</v>
@@ -8188,20 +7690,20 @@
         <v>12</v>
       </c>
       <c r="G214" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H214" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I214" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J214" s="4"/>
       <c r="K214" s="4"/>
     </row>
     <row r="215" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A215" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B215" s="4">
         <v>14</v>
@@ -8219,20 +7721,20 @@
         <v>27</v>
       </c>
       <c r="G215" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H215" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I215" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J215" s="4"/>
       <c r="K215" s="4"/>
     </row>
     <row r="216" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A216" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B216" s="4">
         <v>15</v>
@@ -8250,20 +7752,20 @@
         <v>17</v>
       </c>
       <c r="G216" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H216" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I216" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J216" s="4"/>
       <c r="K216" s="4"/>
     </row>
     <row r="217" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A217" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B217" s="4">
         <v>16</v>
@@ -8281,20 +7783,20 @@
         <v>17</v>
       </c>
       <c r="G217" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H217" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I217" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J217" s="4"/>
       <c r="K217" s="4"/>
     </row>
     <row r="218" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A218" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B218" s="4">
         <v>17</v>
@@ -8312,20 +7814,20 @@
         <v>11</v>
       </c>
       <c r="G218" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H218" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I218" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J218" s="4"/>
       <c r="K218" s="4"/>
     </row>
     <row r="219" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A219" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B219" s="4">
         <v>18</v>
@@ -8343,20 +7845,20 @@
         <v>21</v>
       </c>
       <c r="G219" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H219" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I219" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J219" s="4"/>
       <c r="K219" s="4"/>
     </row>
     <row r="220" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A220" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B220" s="4">
         <v>19</v>
@@ -8374,20 +7876,20 @@
         <v>19</v>
       </c>
       <c r="G220" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H220" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I220" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J220" s="4"/>
       <c r="K220" s="4"/>
     </row>
     <row r="221" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A221" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B221" s="4">
         <v>20</v>
@@ -8405,20 +7907,20 @@
         <v>15</v>
       </c>
       <c r="G221" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H221" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I221" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J221" s="4"/>
       <c r="K221" s="4"/>
     </row>
     <row r="222" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A222" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B222" s="4">
         <v>21</v>
@@ -8436,20 +7938,20 @@
         <v>20</v>
       </c>
       <c r="G222" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H222" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I222" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J222" s="4"/>
       <c r="K222" s="4"/>
     </row>
     <row r="223" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A223" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B223" s="4">
         <v>22</v>
@@ -8467,20 +7969,20 @@
         <v>20</v>
       </c>
       <c r="G223" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H223" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I223" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J223" s="4"/>
       <c r="K223" s="4"/>
     </row>
     <row r="224" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A224" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B224" s="4">
         <v>23</v>
@@ -8498,20 +8000,20 @@
         <v>16</v>
       </c>
       <c r="G224" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H224" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I224" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J224" s="4"/>
       <c r="K224" s="4"/>
     </row>
     <row r="225" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A225" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B225" s="4">
         <v>24</v>
@@ -8529,20 +8031,20 @@
         <v>23</v>
       </c>
       <c r="G225" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H225" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I225" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J225" s="4"/>
       <c r="K225" s="4"/>
     </row>
     <row r="226" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A226" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B226" s="4">
         <v>25</v>
@@ -8560,20 +8062,20 @@
         <v>17</v>
       </c>
       <c r="G226" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H226" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I226" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J226" s="4"/>
       <c r="K226" s="4"/>
     </row>
     <row r="227" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A227" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B227" s="4">
         <v>26</v>
@@ -8591,20 +8093,20 @@
         <v>20</v>
       </c>
       <c r="G227" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H227" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I227" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J227" s="4"/>
       <c r="K227" s="4"/>
     </row>
     <row r="228" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A228" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B228" s="4">
         <v>27</v>
@@ -8622,20 +8124,20 @@
         <v>34</v>
       </c>
       <c r="G228" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H228" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I228" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J228" s="4"/>
       <c r="K228" s="4"/>
     </row>
     <row r="229" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A229" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B229" s="4">
         <v>28</v>
@@ -8653,20 +8155,20 @@
         <v>22</v>
       </c>
       <c r="G229" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H229" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I229" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J229" s="4"/>
       <c r="K229" s="4"/>
     </row>
     <row r="230" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A230" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B230" s="4">
         <v>29</v>
@@ -8684,20 +8186,20 @@
         <v>15</v>
       </c>
       <c r="G230" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H230" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I230" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J230" s="4"/>
       <c r="K230" s="4"/>
     </row>
     <row r="231" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A231" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B231" s="4">
         <v>30</v>
@@ -8715,20 +8217,20 @@
         <v>20</v>
       </c>
       <c r="G231" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H231" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I231" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J231" s="4"/>
       <c r="K231" s="4"/>
     </row>
     <row r="232" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A232" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B232" s="4">
         <v>31</v>
@@ -8746,20 +8248,20 @@
         <v>18</v>
       </c>
       <c r="G232" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H232" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I232" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J232" s="4"/>
       <c r="K232" s="4"/>
     </row>
     <row r="233" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A233" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B233" s="4">
         <v>32</v>
@@ -8777,20 +8279,20 @@
         <v>24</v>
       </c>
       <c r="G233" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H233" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I233" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J233" s="4"/>
       <c r="K233" s="4"/>
     </row>
     <row r="234" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A234" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B234" s="4">
         <v>33</v>
@@ -8808,20 +8310,20 @@
         <v>16</v>
       </c>
       <c r="G234" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H234" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I234" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J234" s="4"/>
       <c r="K234" s="4"/>
     </row>
     <row r="235" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A235" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B235" s="4">
         <v>34</v>
@@ -8839,20 +8341,20 @@
         <v>19</v>
       </c>
       <c r="G235" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H235" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I235" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J235" s="4"/>
       <c r="K235" s="4"/>
     </row>
     <row r="236" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A236" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B236" s="4">
         <v>35</v>
@@ -8870,20 +8372,20 @@
         <v>17</v>
       </c>
       <c r="G236" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H236" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I236" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J236" s="4"/>
       <c r="K236" s="4"/>
     </row>
     <row r="237" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A237" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B237" s="4">
         <v>36</v>
@@ -8901,20 +8403,20 @@
         <v>14</v>
       </c>
       <c r="G237" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H237" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I237" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J237" s="4"/>
       <c r="K237" s="4"/>
     </row>
     <row r="238" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A238" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B238" s="4">
         <v>37</v>
@@ -8932,20 +8434,20 @@
         <v>15</v>
       </c>
       <c r="G238" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H238" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I238" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J238" s="4"/>
       <c r="K238" s="4"/>
     </row>
     <row r="239" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A239" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B239" s="4">
         <v>38</v>
@@ -8963,20 +8465,20 @@
         <v>16</v>
       </c>
       <c r="G239" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H239" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I239" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J239" s="4"/>
       <c r="K239" s="4"/>
     </row>
     <row r="240" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A240" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B240" s="4">
         <v>39</v>
@@ -8994,20 +8496,20 @@
         <v>23</v>
       </c>
       <c r="G240" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H240" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I240" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J240" s="4"/>
       <c r="K240" s="4"/>
     </row>
     <row r="241" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A241" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B241" s="4">
         <v>40</v>
@@ -9025,20 +8527,20 @@
         <v>16</v>
       </c>
       <c r="G241" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H241" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I241" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J241" s="4"/>
       <c r="K241" s="4"/>
     </row>
     <row r="242" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A242" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B242" s="4">
         <v>41</v>
@@ -9056,20 +8558,20 @@
         <v>23</v>
       </c>
       <c r="G242" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H242" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I242" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J242" s="4"/>
       <c r="K242" s="4"/>
     </row>
     <row r="243" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A243" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B243" s="4">
         <v>42</v>
@@ -9087,20 +8589,20 @@
         <v>29</v>
       </c>
       <c r="G243" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H243" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I243" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J243" s="4"/>
       <c r="K243" s="4"/>
     </row>
     <row r="244" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A244" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B244" s="4">
         <v>43</v>
@@ -9118,20 +8620,20 @@
         <v>27</v>
       </c>
       <c r="G244" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H244" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I244" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J244" s="4"/>
       <c r="K244" s="4"/>
     </row>
     <row r="245" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A245" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B245" s="4">
         <v>44</v>
@@ -9149,20 +8651,20 @@
         <v>19</v>
       </c>
       <c r="G245" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H245" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I245" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J245" s="4"/>
       <c r="K245" s="4"/>
     </row>
     <row r="246" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A246" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B246" s="4">
         <v>45</v>
@@ -9180,20 +8682,20 @@
         <v>21</v>
       </c>
       <c r="G246" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H246" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I246" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J246" s="4"/>
       <c r="K246" s="4"/>
     </row>
     <row r="247" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A247" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B247" s="4">
         <v>46</v>
@@ -9211,20 +8713,20 @@
         <v>22</v>
       </c>
       <c r="G247" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H247" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I247" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J247" s="4"/>
       <c r="K247" s="4"/>
     </row>
     <row r="248" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A248" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B248" s="4">
         <v>47</v>
@@ -9242,20 +8744,20 @@
         <v>30</v>
       </c>
       <c r="G248" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H248" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I248" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J248" s="4"/>
       <c r="K248" s="4"/>
     </row>
     <row r="249" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A249" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B249" s="4">
         <v>48</v>
@@ -9273,20 +8775,20 @@
         <v>24</v>
       </c>
       <c r="G249" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H249" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I249" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J249" s="4"/>
       <c r="K249" s="4"/>
     </row>
     <row r="250" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A250" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B250" s="4">
         <v>49</v>
@@ -9304,20 +8806,20 @@
         <v>21</v>
       </c>
       <c r="G250" s="4" t="s">
-        <v>183</v>
+        <v>17</v>
       </c>
       <c r="H250" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I250" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J250" s="4"/>
       <c r="K250" s="4"/>
     </row>
     <row r="251" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A251" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B251" s="4">
         <v>50</v>
@@ -9335,20 +8837,20 @@
         <v>22</v>
       </c>
       <c r="G251" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H251" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I251" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J251" s="4"/>
       <c r="K251" s="4"/>
     </row>
     <row r="252" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A252" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B252" s="4">
         <v>51</v>
@@ -9366,10 +8868,10 @@
         <v>12</v>
       </c>
       <c r="G252" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H252" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I252" s="4">
         <v>9</v>
@@ -9379,7 +8881,7 @@
     </row>
     <row r="253" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A253" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B253" s="4">
         <v>52</v>
@@ -9397,10 +8899,10 @@
         <v>16</v>
       </c>
       <c r="G253" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H253" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I253" s="4">
         <v>5</v>
@@ -9410,7 +8912,7 @@
     </row>
     <row r="254" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A254" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B254" s="4">
         <v>53</v>
@@ -9428,10 +8930,10 @@
         <v>20</v>
       </c>
       <c r="G254" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H254" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I254" s="4">
         <v>5</v>
@@ -9441,7 +8943,7 @@
     </row>
     <row r="255" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A255" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B255" s="4">
         <v>54</v>
@@ -9459,10 +8961,10 @@
         <v>12</v>
       </c>
       <c r="G255" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H255" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I255" s="4">
         <v>5</v>
@@ -9472,7 +8974,7 @@
     </row>
     <row r="256" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A256" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B256" s="4">
         <v>55</v>
@@ -9490,10 +8992,10 @@
         <v>15</v>
       </c>
       <c r="G256" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H256" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I256" s="4">
         <v>11</v>
@@ -9503,7 +9005,7 @@
     </row>
     <row r="257" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A257" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B257" s="4">
         <v>56</v>
@@ -9521,10 +9023,10 @@
         <v>10</v>
       </c>
       <c r="G257" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H257" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I257" s="4">
         <v>11</v>
@@ -9534,7 +9036,7 @@
     </row>
     <row r="258" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A258" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B258" s="4">
         <v>57</v>
@@ -9552,10 +9054,10 @@
         <v>18</v>
       </c>
       <c r="G258" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H258" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I258" s="4">
         <v>11</v>
@@ -9565,7 +9067,7 @@
     </row>
     <row r="259" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A259" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B259" s="4">
         <v>58</v>
@@ -9583,10 +9085,10 @@
         <v>16</v>
       </c>
       <c r="G259" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H259" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I259" s="4">
         <v>11</v>
@@ -9596,7 +9098,7 @@
     </row>
     <row r="260" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A260" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B260" s="4">
         <v>59</v>
@@ -9614,10 +9116,10 @@
         <v>11</v>
       </c>
       <c r="G260" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H260" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I260" s="4">
         <v>11</v>
@@ -9627,7 +9129,7 @@
     </row>
     <row r="261" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A261" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B261" s="4">
         <v>60</v>
@@ -9645,10 +9147,10 @@
         <v>21</v>
       </c>
       <c r="G261" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H261" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I261" s="4">
         <v>11</v>
@@ -9658,7 +9160,7 @@
     </row>
     <row r="262" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A262" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B262" s="4">
         <v>61</v>
@@ -9676,10 +9178,10 @@
         <v>16</v>
       </c>
       <c r="G262" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H262" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I262" s="4">
         <v>11</v>
@@ -9689,7 +9191,7 @@
     </row>
     <row r="263" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A263" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B263" s="4">
         <v>62</v>
@@ -9707,10 +9209,10 @@
         <v>11</v>
       </c>
       <c r="G263" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H263" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I263" s="4">
         <v>11</v>
@@ -9720,7 +9222,7 @@
     </row>
     <row r="264" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A264" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B264" s="4">
         <v>63</v>
@@ -9738,10 +9240,10 @@
         <v>15</v>
       </c>
       <c r="G264" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H264" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I264" s="4">
         <v>11</v>
@@ -9751,7 +9253,7 @@
     </row>
     <row r="265" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A265" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B265" s="4">
         <v>64</v>
@@ -9769,10 +9271,10 @@
         <v>13</v>
       </c>
       <c r="G265" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H265" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I265" s="4">
         <v>11</v>
@@ -9782,7 +9284,7 @@
     </row>
     <row r="266" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A266" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B266" s="4">
         <v>65</v>
@@ -9800,10 +9302,10 @@
         <v>12</v>
       </c>
       <c r="G266" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H266" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I266" s="4">
         <v>11</v>
@@ -9813,7 +9315,7 @@
     </row>
     <row r="267" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A267" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B267" s="4">
         <v>66</v>
@@ -9831,10 +9333,10 @@
         <v>11</v>
       </c>
       <c r="G267" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H267" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I267" s="4">
         <v>11</v>
@@ -9844,7 +9346,7 @@
     </row>
     <row r="268" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A268" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B268" s="4">
         <v>67</v>
@@ -9862,10 +9364,10 @@
         <v>18</v>
       </c>
       <c r="G268" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H268" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I268" s="4">
         <v>9</v>
@@ -9875,7 +9377,7 @@
     </row>
     <row r="269" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A269" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B269" s="4">
         <v>68</v>
@@ -9893,10 +9395,10 @@
         <v>13</v>
       </c>
       <c r="G269" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H269" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I269" s="4">
         <v>9</v>
@@ -9906,7 +9408,7 @@
     </row>
     <row r="270" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A270" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B270" s="4">
         <v>69</v>
@@ -9924,10 +9426,10 @@
         <v>10</v>
       </c>
       <c r="G270" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H270" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I270" s="4">
         <v>9</v>
@@ -9937,7 +9439,7 @@
     </row>
     <row r="271" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A271" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B271" s="4">
         <v>70</v>
@@ -9955,10 +9457,10 @@
         <v>14</v>
       </c>
       <c r="G271" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H271" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I271" s="4">
         <v>9</v>
@@ -9968,7 +9470,7 @@
     </row>
     <row r="272" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A272" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B272" s="4">
         <v>71</v>
@@ -9986,10 +9488,10 @@
         <v>14</v>
       </c>
       <c r="G272" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H272" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I272" s="4">
         <v>9</v>
@@ -9999,7 +9501,7 @@
     </row>
     <row r="273" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A273" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B273" s="4">
         <v>72</v>
@@ -10017,10 +9519,10 @@
         <v>17</v>
       </c>
       <c r="G273" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H273" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I273" s="4">
         <v>9</v>
@@ -10030,7 +9532,7 @@
     </row>
     <row r="274" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A274" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B274" s="4">
         <v>73</v>
@@ -10048,10 +9550,10 @@
         <v>10</v>
       </c>
       <c r="G274" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H274" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I274" s="4">
         <v>9</v>
@@ -10061,7 +9563,7 @@
     </row>
     <row r="275" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A275" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B275" s="4">
         <v>74</v>
@@ -10079,10 +9581,10 @@
         <v>15</v>
       </c>
       <c r="G275" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H275" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I275" s="4">
         <v>9</v>
@@ -10092,7 +9594,7 @@
     </row>
     <row r="276" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A276" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B276" s="4">
         <v>75</v>
@@ -10110,10 +9612,10 @@
         <v>11</v>
       </c>
       <c r="G276" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H276" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I276" s="4">
         <v>9</v>
@@ -10123,7 +9625,7 @@
     </row>
     <row r="277" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A277" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B277" s="4">
         <v>76</v>
@@ -10141,10 +9643,10 @@
         <v>12</v>
       </c>
       <c r="G277" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H277" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I277" s="4">
         <v>9</v>
@@ -10154,7 +9656,7 @@
     </row>
     <row r="278" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A278" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B278" s="4">
         <v>77</v>
@@ -10172,10 +9674,10 @@
         <v>12</v>
       </c>
       <c r="G278" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H278" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I278" s="4">
         <v>9</v>
@@ -10185,7 +9687,7 @@
     </row>
     <row r="279" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A279" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B279" s="4">
         <v>78</v>
@@ -10203,10 +9705,10 @@
         <v>12</v>
       </c>
       <c r="G279" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H279" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I279" s="4">
         <v>9</v>
@@ -10216,7 +9718,7 @@
     </row>
     <row r="280" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A280" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B280" s="4">
         <v>79</v>
@@ -10234,10 +9736,10 @@
         <v>12</v>
       </c>
       <c r="G280" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H280" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I280" s="4">
         <v>9</v>
@@ -10247,7 +9749,7 @@
     </row>
     <row r="281" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A281" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B281" s="4">
         <v>80</v>
@@ -10265,10 +9767,10 @@
         <v>14</v>
       </c>
       <c r="G281" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H281" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I281" s="4">
         <v>9</v>
@@ -10278,7 +9780,7 @@
     </row>
     <row r="282" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A282" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B282" s="4">
         <v>81</v>
@@ -10296,10 +9798,10 @@
         <v>17</v>
       </c>
       <c r="G282" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H282" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I282" s="4">
         <v>9</v>
@@ -10309,7 +9811,7 @@
     </row>
     <row r="283" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A283" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B283" s="4">
         <v>82</v>
@@ -10327,10 +9829,10 @@
         <v>13</v>
       </c>
       <c r="G283" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H283" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I283" s="4">
         <v>9</v>
@@ -10340,7 +9842,7 @@
     </row>
     <row r="284" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A284" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B284" s="4">
         <v>83</v>
@@ -10358,10 +9860,10 @@
         <v>17</v>
       </c>
       <c r="G284" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H284" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I284" s="4">
         <v>9</v>
@@ -10371,7 +9873,7 @@
     </row>
     <row r="285" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A285" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B285" s="4">
         <v>84</v>
@@ -10389,10 +9891,10 @@
         <v>15</v>
       </c>
       <c r="G285" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H285" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I285" s="4">
         <v>9</v>
@@ -10402,7 +9904,7 @@
     </row>
     <row r="286" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A286" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B286" s="4">
         <v>85</v>
@@ -10420,10 +9922,10 @@
         <v>14</v>
       </c>
       <c r="G286" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H286" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I286" s="4">
         <v>9</v>
@@ -10433,7 +9935,7 @@
     </row>
     <row r="287" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A287" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B287" s="4">
         <v>86</v>
@@ -10451,10 +9953,10 @@
         <v>11</v>
       </c>
       <c r="G287" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H287" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I287" s="4">
         <v>9</v>
@@ -10464,7 +9966,7 @@
     </row>
     <row r="288" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A288" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B288" s="4">
         <v>87</v>
@@ -10482,10 +9984,10 @@
         <v>15</v>
       </c>
       <c r="G288" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H288" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I288" s="4">
         <v>9</v>
@@ -10495,7 +9997,7 @@
     </row>
     <row r="289" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A289" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B289" s="4">
         <v>88</v>
@@ -10513,10 +10015,10 @@
         <v>14</v>
       </c>
       <c r="G289" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H289" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I289" s="4">
         <v>9</v>
@@ -10526,7 +10028,7 @@
     </row>
     <row r="290" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A290" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B290" s="4">
         <v>89</v>
@@ -10544,10 +10046,10 @@
         <v>14</v>
       </c>
       <c r="G290" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H290" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I290" s="4">
         <v>9</v>
@@ -10557,7 +10059,7 @@
     </row>
     <row r="291" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A291" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B291" s="4">
         <v>90</v>
@@ -10575,10 +10077,10 @@
         <v>11</v>
       </c>
       <c r="G291" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H291" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I291" s="4">
         <v>9</v>
@@ -10588,7 +10090,7 @@
     </row>
     <row r="292" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A292" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B292" s="4">
         <v>91</v>
@@ -10606,10 +10108,10 @@
         <v>10</v>
       </c>
       <c r="G292" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H292" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I292" s="4">
         <v>5</v>
@@ -10619,7 +10121,7 @@
     </row>
     <row r="293" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A293" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B293" s="4">
         <v>92</v>
@@ -10637,10 +10139,10 @@
         <v>11</v>
       </c>
       <c r="G293" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H293" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I293" s="4">
         <v>5</v>
@@ -10650,7 +10152,7 @@
     </row>
     <row r="294" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A294" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B294" s="4">
         <v>93</v>
@@ -10668,10 +10170,10 @@
         <v>12</v>
       </c>
       <c r="G294" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H294" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I294" s="4">
         <v>5</v>
@@ -10681,7 +10183,7 @@
     </row>
     <row r="295" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A295" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B295" s="4">
         <v>94</v>
@@ -10699,10 +10201,10 @@
         <v>10</v>
       </c>
       <c r="G295" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H295" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I295" s="4">
         <v>5</v>
@@ -10712,7 +10214,7 @@
     </row>
     <row r="296" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A296" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B296" s="4">
         <v>95</v>
@@ -10730,10 +10232,10 @@
         <v>20</v>
       </c>
       <c r="G296" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H296" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I296" s="4">
         <v>5</v>
@@ -10743,7 +10245,7 @@
     </row>
     <row r="297" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A297" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B297" s="4">
         <v>96</v>
@@ -10761,10 +10263,10 @@
         <v>12</v>
       </c>
       <c r="G297" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H297" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I297" s="4">
         <v>5</v>
@@ -10774,7 +10276,7 @@
     </row>
     <row r="298" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A298" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B298" s="4">
         <v>97</v>
@@ -10792,10 +10294,10 @@
         <v>19</v>
       </c>
       <c r="G298" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H298" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I298" s="4">
         <v>11</v>
@@ -10805,7 +10307,7 @@
     </row>
     <row r="299" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A299" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B299" s="4">
         <v>98</v>
@@ -10823,10 +10325,10 @@
         <v>15</v>
       </c>
       <c r="G299" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H299" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I299" s="4">
         <v>11</v>
@@ -10836,7 +10338,7 @@
     </row>
     <row r="300" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A300" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B300" s="4">
         <v>99</v>
@@ -10854,10 +10356,10 @@
         <v>17</v>
       </c>
       <c r="G300" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H300" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I300" s="4">
         <v>11</v>
@@ -10867,7 +10369,7 @@
     </row>
     <row r="301" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A301" s="4" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="B301" s="4">
         <v>100</v>
@@ -10885,10 +10387,10 @@
         <v>17</v>
       </c>
       <c r="G301" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H301" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I301" s="4">
         <v>11</v>
@@ -10898,7 +10400,7 @@
     </row>
     <row r="302" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A302" s="4" t="s">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="B302" s="4">
         <v>1</v>
@@ -10916,20 +10418,20 @@
         <v>17</v>
       </c>
       <c r="G302" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H302" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I302" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J302" s="4"/>
       <c r="K302" s="4"/>
     </row>
     <row r="303" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A303" s="4" t="s">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="B303" s="4">
         <v>2</v>
@@ -10947,20 +10449,20 @@
         <v>10</v>
       </c>
       <c r="G303" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H303" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I303" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J303" s="4"/>
       <c r="K303" s="4"/>
     </row>
     <row r="304" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A304" s="4" t="s">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="B304" s="4">
         <v>3</v>
@@ -10978,20 +10480,20 @@
         <v>16</v>
       </c>
       <c r="G304" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H304" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I304" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J304" s="4"/>
       <c r="K304" s="4"/>
     </row>
     <row r="305" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A305" s="4" t="s">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="B305" s="4">
         <v>4</v>
@@ -11009,20 +10511,20 @@
         <v>17</v>
       </c>
       <c r="G305" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H305" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I305" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J305" s="4"/>
       <c r="K305" s="4"/>
     </row>
     <row r="306" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A306" s="4" t="s">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="B306" s="4">
         <v>5</v>
@@ -11040,20 +10542,20 @@
         <v>15</v>
       </c>
       <c r="G306" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H306" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I306" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J306" s="4"/>
       <c r="K306" s="4"/>
     </row>
     <row r="307" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A307" s="4" t="s">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="B307" s="4">
         <v>6</v>
@@ -11071,20 +10573,20 @@
         <v>11</v>
       </c>
       <c r="G307" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H307" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I307" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J307" s="4"/>
       <c r="K307" s="4"/>
     </row>
     <row r="308" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A308" s="4" t="s">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="B308" s="4">
         <v>7</v>
@@ -11102,20 +10604,20 @@
         <v>21</v>
       </c>
       <c r="G308" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H308" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I308" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J308" s="4"/>
       <c r="K308" s="4"/>
     </row>
     <row r="309" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A309" s="4" t="s">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="B309" s="4">
         <v>8</v>
@@ -11133,20 +10635,20 @@
         <v>17</v>
       </c>
       <c r="G309" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H309" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I309" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J309" s="4"/>
       <c r="K309" s="4"/>
     </row>
     <row r="310" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A310" s="4" t="s">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="B310" s="4">
         <v>9</v>
@@ -11164,20 +10666,20 @@
         <v>17</v>
       </c>
       <c r="G310" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H310" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I310" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J310" s="4"/>
       <c r="K310" s="4"/>
     </row>
     <row r="311" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A311" s="4" t="s">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="B311" s="4">
         <v>10</v>
@@ -11195,20 +10697,20 @@
         <v>12</v>
       </c>
       <c r="G311" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H311" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I311" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J311" s="4"/>
       <c r="K311" s="4"/>
     </row>
     <row r="312" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A312" s="4" t="s">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="B312" s="4">
         <v>11</v>
@@ -11226,20 +10728,20 @@
         <v>34</v>
       </c>
       <c r="G312" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H312" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I312" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J312" s="4"/>
       <c r="K312" s="4"/>
     </row>
     <row r="313" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A313" s="4" t="s">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="B313" s="4">
         <v>12</v>
@@ -11257,20 +10759,20 @@
         <v>11</v>
       </c>
       <c r="G313" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H313" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I313" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J313" s="4"/>
       <c r="K313" s="4"/>
     </row>
     <row r="314" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A314" s="4" t="s">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="B314" s="4">
         <v>13</v>
@@ -11288,20 +10790,20 @@
         <v>11</v>
       </c>
       <c r="G314" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H314" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I314" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J314" s="4"/>
       <c r="K314" s="4"/>
     </row>
     <row r="315" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A315" s="4" t="s">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="B315" s="4">
         <v>14</v>
@@ -11319,20 +10821,20 @@
         <v>22</v>
       </c>
       <c r="G315" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H315" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I315" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J315" s="4"/>
       <c r="K315" s="4"/>
     </row>
     <row r="316" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A316" s="4" t="s">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="B316" s="4">
         <v>15</v>
@@ -11350,20 +10852,20 @@
         <v>27</v>
       </c>
       <c r="G316" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H316" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I316" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J316" s="4"/>
       <c r="K316" s="4"/>
     </row>
     <row r="317" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A317" s="4" t="s">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="B317" s="4">
         <v>16</v>
@@ -11381,20 +10883,20 @@
         <v>22</v>
       </c>
       <c r="G317" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H317" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I317" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J317" s="4"/>
       <c r="K317" s="4"/>
     </row>
     <row r="318" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A318" s="4" t="s">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="B318" s="4">
         <v>17</v>
@@ -11412,20 +10914,20 @@
         <v>10</v>
       </c>
       <c r="G318" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H318" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I318" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J318" s="4"/>
       <c r="K318" s="4"/>
     </row>
     <row r="319" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A319" s="4" t="s">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="B319" s="4">
         <v>18</v>
@@ -11443,20 +10945,20 @@
         <v>15</v>
       </c>
       <c r="G319" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H319" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I319" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J319" s="4"/>
       <c r="K319" s="4"/>
     </row>
     <row r="320" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A320" s="4" t="s">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="B320" s="4">
         <v>19</v>
@@ -11474,20 +10976,20 @@
         <v>18</v>
       </c>
       <c r="G320" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H320" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I320" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J320" s="4"/>
       <c r="K320" s="4"/>
     </row>
     <row r="321" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A321" s="4" t="s">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="B321" s="4">
         <v>20</v>
@@ -11505,20 +11007,20 @@
         <v>11</v>
       </c>
       <c r="G321" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H321" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I321" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J321" s="4"/>
       <c r="K321" s="4"/>
     </row>
     <row r="322" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A322" s="4" t="s">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="B322" s="4">
         <v>21</v>
@@ -11536,20 +11038,20 @@
         <v>17</v>
       </c>
       <c r="G322" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H322" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I322" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J322" s="4"/>
       <c r="K322" s="4"/>
     </row>
     <row r="323" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A323" s="4" t="s">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="B323" s="4">
         <v>22</v>
@@ -11567,20 +11069,20 @@
         <v>15</v>
       </c>
       <c r="G323" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H323" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I323" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J323" s="4"/>
       <c r="K323" s="4"/>
     </row>
     <row r="324" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A324" s="4" t="s">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="B324" s="4">
         <v>23</v>
@@ -11598,20 +11100,20 @@
         <v>15</v>
       </c>
       <c r="G324" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H324" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I324" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J324" s="4"/>
       <c r="K324" s="4"/>
     </row>
     <row r="325" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A325" s="4" t="s">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="B325" s="4">
         <v>24</v>
@@ -11629,20 +11131,20 @@
         <v>10</v>
       </c>
       <c r="G325" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H325" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I325" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J325" s="4"/>
       <c r="K325" s="4"/>
     </row>
     <row r="326" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A326" s="4" t="s">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="B326" s="4">
         <v>25</v>
@@ -11660,20 +11162,20 @@
         <v>10</v>
       </c>
       <c r="G326" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H326" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I326" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J326" s="4"/>
       <c r="K326" s="4"/>
     </row>
     <row r="327" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A327" s="4" t="s">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="B327" s="4">
         <v>26</v>
@@ -11691,20 +11193,20 @@
         <v>16</v>
       </c>
       <c r="G327" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H327" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I327" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J327" s="4"/>
       <c r="K327" s="4"/>
     </row>
     <row r="328" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A328" s="4" t="s">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="B328" s="4">
         <v>27</v>
@@ -11722,10 +11224,10 @@
         <v>9</v>
       </c>
       <c r="G328" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H328" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I328" s="4">
         <v>10</v>
@@ -11735,7 +11237,7 @@
     </row>
     <row r="329" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A329" s="4" t="s">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="B329" s="4">
         <v>28</v>
@@ -11753,10 +11255,10 @@
         <v>9</v>
       </c>
       <c r="G329" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H329" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I329" s="4">
         <v>12</v>
@@ -11766,7 +11268,7 @@
     </row>
     <row r="330" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A330" s="4" t="s">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="B330" s="4">
         <v>29</v>
@@ -11784,10 +11286,10 @@
         <v>9</v>
       </c>
       <c r="G330" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H330" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I330" s="4">
         <v>12</v>
@@ -11797,7 +11299,7 @@
     </row>
     <row r="331" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A331" s="4" t="s">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="B331" s="4">
         <v>30</v>
@@ -11815,10 +11317,10 @@
         <v>15</v>
       </c>
       <c r="G331" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H331" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I331" s="4">
         <v>8</v>
@@ -11828,7 +11330,7 @@
     </row>
     <row r="332" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A332" s="4" t="s">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="B332" s="4">
         <v>31</v>
@@ -11846,10 +11348,10 @@
         <v>11</v>
       </c>
       <c r="G332" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H332" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I332" s="4">
         <v>7</v>
@@ -11859,7 +11361,7 @@
     </row>
     <row r="333" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A333" s="4" t="s">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="B333" s="4">
         <v>32</v>
@@ -11877,10 +11379,10 @@
         <v>11</v>
       </c>
       <c r="G333" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H333" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I333" s="4">
         <v>9</v>
@@ -11890,7 +11392,7 @@
     </row>
     <row r="334" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A334" s="4" t="s">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="B334" s="4">
         <v>33</v>
@@ -11908,10 +11410,10 @@
         <v>9</v>
       </c>
       <c r="G334" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H334" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I334" s="4">
         <v>9</v>
@@ -11921,7 +11423,7 @@
     </row>
     <row r="335" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A335" s="4" t="s">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="B335" s="4">
         <v>34</v>
@@ -11939,10 +11441,10 @@
         <v>14</v>
       </c>
       <c r="G335" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H335" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I335" s="4">
         <v>8</v>

--- a/Sosya/R_calc_DinFET/Data/Din Fet 2024.xlsx
+++ b/Sosya/R_calc_DinFET/Data/Din Fet 2024.xlsx
@@ -4,11 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180"/>
+    <workbookView windowWidth="22188" windowHeight="9120"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$I$335</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -62,7 +65,7 @@
     <t>E</t>
   </si>
   <si>
-    <t>A</t>
+    <t>A.nodosum</t>
   </si>
   <si>
     <t>NA</t>
@@ -71,7 +74,7 @@
     <t>T</t>
   </si>
   <si>
-    <t>F</t>
+    <t>F.vesiculosus</t>
   </si>
   <si>
     <t>Din Fet 2</t>
@@ -1051,11 +1054,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K336"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1064,6 +1067,7 @@
     <col min="3" max="3" width="8.85185185185185" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="7" max="7" width="12.1388888888889" customWidth="1"/>
+    <col min="8" max="8" width="10.6666666666667" customWidth="1"/>
     <col min="9" max="9" width="13.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1098,7 +1102,7 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="2" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -1129,7 +1133,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="3" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -1160,7 +1164,7 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="4" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
@@ -1191,7 +1195,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="5" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -2772,7 +2776,7 @@
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
     </row>
-    <row r="56" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="56" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A56" s="4" t="s">
         <v>9</v>
       </c>
@@ -2803,7 +2807,7 @@
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
     </row>
-    <row r="57" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="57" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A57" s="4" t="s">
         <v>9</v>
       </c>
@@ -2834,7 +2838,7 @@
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
     </row>
-    <row r="58" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="58" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A58" s="4" t="s">
         <v>9</v>
       </c>
@@ -2865,7 +2869,7 @@
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
     </row>
-    <row r="59" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="59" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A59" s="4" t="s">
         <v>9</v>
       </c>
@@ -2896,7 +2900,7 @@
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
     </row>
-    <row r="60" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="60" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A60" s="4" t="s">
         <v>9</v>
       </c>
@@ -2927,7 +2931,7 @@
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
     </row>
-    <row r="61" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="61" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A61" s="4" t="s">
         <v>9</v>
       </c>
@@ -2958,7 +2962,7 @@
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
     </row>
-    <row r="62" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="62" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A62" s="4" t="s">
         <v>9</v>
       </c>
@@ -2989,7 +2993,7 @@
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
     </row>
-    <row r="63" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="63" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A63" s="4" t="s">
         <v>9</v>
       </c>
@@ -3020,7 +3024,7 @@
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
     </row>
-    <row r="64" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="64" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A64" s="4" t="s">
         <v>9</v>
       </c>
@@ -3051,7 +3055,7 @@
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
     </row>
-    <row r="65" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="65" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A65" s="4" t="s">
         <v>9</v>
       </c>
@@ -3082,7 +3086,7 @@
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
     </row>
-    <row r="66" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="66" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A66" s="4" t="s">
         <v>9</v>
       </c>
@@ -3113,7 +3117,7 @@
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
     </row>
-    <row r="67" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="67" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A67" s="4" t="s">
         <v>9</v>
       </c>
@@ -3144,7 +3148,7 @@
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
     </row>
-    <row r="68" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="68" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A68" s="4" t="s">
         <v>9</v>
       </c>
@@ -3175,7 +3179,7 @@
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
     </row>
-    <row r="69" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="69" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A69" s="4" t="s">
         <v>9</v>
       </c>
@@ -3206,7 +3210,7 @@
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
     </row>
-    <row r="70" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="70" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A70" s="4" t="s">
         <v>9</v>
       </c>
@@ -3237,7 +3241,7 @@
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
     </row>
-    <row r="71" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="71" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A71" s="4" t="s">
         <v>9</v>
       </c>
@@ -3268,7 +3272,7 @@
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
     </row>
-    <row r="72" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="72" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A72" s="4" t="s">
         <v>9</v>
       </c>
@@ -3299,7 +3303,7 @@
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
     </row>
-    <row r="73" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="73" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A73" s="4" t="s">
         <v>9</v>
       </c>
@@ -3330,7 +3334,7 @@
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
     </row>
-    <row r="74" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="74" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A74" s="4" t="s">
         <v>9</v>
       </c>
@@ -3361,7 +3365,7 @@
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
     </row>
-    <row r="75" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="75" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A75" s="4" t="s">
         <v>9</v>
       </c>
@@ -3392,7 +3396,7 @@
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
     </row>
-    <row r="76" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="76" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A76" s="4" t="s">
         <v>9</v>
       </c>
@@ -3423,7 +3427,7 @@
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
     </row>
-    <row r="77" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="77" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A77" s="4" t="s">
         <v>9</v>
       </c>
@@ -3454,7 +3458,7 @@
       <c r="J77" s="4"/>
       <c r="K77" s="4"/>
     </row>
-    <row r="78" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="78" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A78" s="4" t="s">
         <v>9</v>
       </c>
@@ -3485,7 +3489,7 @@
       <c r="J78" s="4"/>
       <c r="K78" s="4"/>
     </row>
-    <row r="79" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="79" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A79" s="4" t="s">
         <v>9</v>
       </c>
@@ -3516,7 +3520,7 @@
       <c r="J79" s="4"/>
       <c r="K79" s="4"/>
     </row>
-    <row r="80" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="80" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A80" s="4" t="s">
         <v>9</v>
       </c>
@@ -3547,7 +3551,7 @@
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
     </row>
-    <row r="81" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="81" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A81" s="4" t="s">
         <v>9</v>
       </c>
@@ -3578,7 +3582,7 @@
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
     </row>
-    <row r="82" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="82" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A82" s="4" t="s">
         <v>9</v>
       </c>
@@ -3609,7 +3613,7 @@
       <c r="J82" s="4"/>
       <c r="K82" s="4"/>
     </row>
-    <row r="83" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="83" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A83" s="4" t="s">
         <v>9</v>
       </c>
@@ -3640,7 +3644,7 @@
       <c r="J83" s="4"/>
       <c r="K83" s="4"/>
     </row>
-    <row r="84" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="84" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A84" s="4" t="s">
         <v>9</v>
       </c>
@@ -3671,7 +3675,7 @@
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
     </row>
-    <row r="85" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="85" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A85" s="4" t="s">
         <v>9</v>
       </c>
@@ -3702,7 +3706,7 @@
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
     </row>
-    <row r="86" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="86" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A86" s="4" t="s">
         <v>9</v>
       </c>
@@ -3733,7 +3737,7 @@
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
     </row>
-    <row r="87" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="87" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A87" s="4" t="s">
         <v>9</v>
       </c>
@@ -3764,7 +3768,7 @@
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
     </row>
-    <row r="88" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="88" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A88" s="4" t="s">
         <v>9</v>
       </c>
@@ -3795,7 +3799,7 @@
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
     </row>
-    <row r="89" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="89" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A89" s="4" t="s">
         <v>9</v>
       </c>
@@ -3826,7 +3830,7 @@
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
     </row>
-    <row r="90" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="90" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A90" s="4" t="s">
         <v>9</v>
       </c>
@@ -3857,7 +3861,7 @@
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
     </row>
-    <row r="91" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="91" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A91" s="4" t="s">
         <v>9</v>
       </c>
@@ -3888,7 +3892,7 @@
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
     </row>
-    <row r="92" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="92" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A92" s="4" t="s">
         <v>9</v>
       </c>
@@ -3919,7 +3923,7 @@
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
     </row>
-    <row r="93" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="93" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A93" s="4" t="s">
         <v>9</v>
       </c>
@@ -3950,7 +3954,7 @@
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
     </row>
-    <row r="94" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="94" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A94" s="4" t="s">
         <v>9</v>
       </c>
@@ -3981,7 +3985,7 @@
       <c r="J94" s="4"/>
       <c r="K94" s="4"/>
     </row>
-    <row r="95" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="95" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A95" s="4" t="s">
         <v>9</v>
       </c>
@@ -4012,7 +4016,7 @@
       <c r="J95" s="4"/>
       <c r="K95" s="4"/>
     </row>
-    <row r="96" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="96" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A96" s="4" t="s">
         <v>9</v>
       </c>
@@ -4043,7 +4047,7 @@
       <c r="J96" s="4"/>
       <c r="K96" s="4"/>
     </row>
-    <row r="97" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="97" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A97" s="4" t="s">
         <v>9</v>
       </c>
@@ -4074,7 +4078,7 @@
       <c r="J97" s="4"/>
       <c r="K97" s="4"/>
     </row>
-    <row r="98" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="98" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A98" s="4" t="s">
         <v>9</v>
       </c>
@@ -4105,7 +4109,7 @@
       <c r="J98" s="4"/>
       <c r="K98" s="4"/>
     </row>
-    <row r="99" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="99" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A99" s="4" t="s">
         <v>9</v>
       </c>
@@ -4136,7 +4140,7 @@
       <c r="J99" s="4"/>
       <c r="K99" s="4"/>
     </row>
-    <row r="100" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="100" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A100" s="4" t="s">
         <v>9</v>
       </c>
@@ -4167,7 +4171,7 @@
       <c r="J100" s="4"/>
       <c r="K100" s="4"/>
     </row>
-    <row r="101" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="101" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A101" s="4" t="s">
         <v>9</v>
       </c>
@@ -5748,7 +5752,7 @@
       <c r="J151" s="4"/>
       <c r="K151" s="4"/>
     </row>
-    <row r="152" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="152" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A152" s="4" t="s">
         <v>15</v>
       </c>
@@ -5779,7 +5783,7 @@
       <c r="J152" s="4"/>
       <c r="K152" s="4"/>
     </row>
-    <row r="153" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="153" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A153" s="4" t="s">
         <v>15</v>
       </c>
@@ -5810,7 +5814,7 @@
       <c r="J153" s="4"/>
       <c r="K153" s="4"/>
     </row>
-    <row r="154" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="154" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A154" s="4" t="s">
         <v>15</v>
       </c>
@@ -5841,7 +5845,7 @@
       <c r="J154" s="4"/>
       <c r="K154" s="4"/>
     </row>
-    <row r="155" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="155" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A155" s="4" t="s">
         <v>15</v>
       </c>
@@ -5872,7 +5876,7 @@
       <c r="J155" s="4"/>
       <c r="K155" s="4"/>
     </row>
-    <row r="156" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="156" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A156" s="4" t="s">
         <v>15</v>
       </c>
@@ -5903,7 +5907,7 @@
       <c r="J156" s="4"/>
       <c r="K156" s="4"/>
     </row>
-    <row r="157" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="157" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A157" s="4" t="s">
         <v>15</v>
       </c>
@@ -5934,7 +5938,7 @@
       <c r="J157" s="4"/>
       <c r="K157" s="4"/>
     </row>
-    <row r="158" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="158" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A158" s="4" t="s">
         <v>15</v>
       </c>
@@ -5965,7 +5969,7 @@
       <c r="J158" s="4"/>
       <c r="K158" s="4"/>
     </row>
-    <row r="159" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="159" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A159" s="4" t="s">
         <v>15</v>
       </c>
@@ -5996,7 +6000,7 @@
       <c r="J159" s="4"/>
       <c r="K159" s="4"/>
     </row>
-    <row r="160" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="160" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A160" s="4" t="s">
         <v>15</v>
       </c>
@@ -6027,7 +6031,7 @@
       <c r="J160" s="4"/>
       <c r="K160" s="4"/>
     </row>
-    <row r="161" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="161" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A161" s="4" t="s">
         <v>15</v>
       </c>
@@ -6058,7 +6062,7 @@
       <c r="J161" s="4"/>
       <c r="K161" s="4"/>
     </row>
-    <row r="162" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="162" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A162" s="4" t="s">
         <v>15</v>
       </c>
@@ -6089,7 +6093,7 @@
       <c r="J162" s="4"/>
       <c r="K162" s="4"/>
     </row>
-    <row r="163" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="163" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A163" s="4" t="s">
         <v>15</v>
       </c>
@@ -6120,7 +6124,7 @@
       <c r="J163" s="4"/>
       <c r="K163" s="4"/>
     </row>
-    <row r="164" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="164" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A164" s="4" t="s">
         <v>15</v>
       </c>
@@ -6151,7 +6155,7 @@
       <c r="J164" s="4"/>
       <c r="K164" s="4"/>
     </row>
-    <row r="165" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="165" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A165" s="4" t="s">
         <v>15</v>
       </c>
@@ -6182,7 +6186,7 @@
       <c r="J165" s="4"/>
       <c r="K165" s="4"/>
     </row>
-    <row r="166" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="166" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A166" s="4" t="s">
         <v>15</v>
       </c>
@@ -6213,7 +6217,7 @@
       <c r="J166" s="4"/>
       <c r="K166" s="4"/>
     </row>
-    <row r="167" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="167" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A167" s="4" t="s">
         <v>15</v>
       </c>
@@ -6244,7 +6248,7 @@
       <c r="J167" s="4"/>
       <c r="K167" s="4"/>
     </row>
-    <row r="168" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="168" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A168" s="4" t="s">
         <v>15</v>
       </c>
@@ -6275,7 +6279,7 @@
       <c r="J168" s="4"/>
       <c r="K168" s="4"/>
     </row>
-    <row r="169" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="169" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A169" s="4" t="s">
         <v>15</v>
       </c>
@@ -6306,7 +6310,7 @@
       <c r="J169" s="4"/>
       <c r="K169" s="4"/>
     </row>
-    <row r="170" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="170" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A170" s="4" t="s">
         <v>15</v>
       </c>
@@ -6337,7 +6341,7 @@
       <c r="J170" s="4"/>
       <c r="K170" s="4"/>
     </row>
-    <row r="171" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="171" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A171" s="4" t="s">
         <v>15</v>
       </c>
@@ -6368,7 +6372,7 @@
       <c r="J171" s="4"/>
       <c r="K171" s="4"/>
     </row>
-    <row r="172" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="172" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A172" s="4" t="s">
         <v>15</v>
       </c>
@@ -6399,7 +6403,7 @@
       <c r="J172" s="4"/>
       <c r="K172" s="4"/>
     </row>
-    <row r="173" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="173" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A173" s="4" t="s">
         <v>15</v>
       </c>
@@ -6430,7 +6434,7 @@
       <c r="J173" s="4"/>
       <c r="K173" s="4"/>
     </row>
-    <row r="174" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="174" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A174" s="4" t="s">
         <v>15</v>
       </c>
@@ -6461,7 +6465,7 @@
       <c r="J174" s="4"/>
       <c r="K174" s="4"/>
     </row>
-    <row r="175" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="175" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A175" s="4" t="s">
         <v>15</v>
       </c>
@@ -6492,7 +6496,7 @@
       <c r="J175" s="4"/>
       <c r="K175" s="4"/>
     </row>
-    <row r="176" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="176" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A176" s="4" t="s">
         <v>15</v>
       </c>
@@ -6523,7 +6527,7 @@
       <c r="J176" s="4"/>
       <c r="K176" s="4"/>
     </row>
-    <row r="177" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="177" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A177" s="4" t="s">
         <v>15</v>
       </c>
@@ -6554,7 +6558,7 @@
       <c r="J177" s="4"/>
       <c r="K177" s="4"/>
     </row>
-    <row r="178" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="178" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A178" s="4" t="s">
         <v>15</v>
       </c>
@@ -6585,7 +6589,7 @@
       <c r="J178" s="4"/>
       <c r="K178" s="4"/>
     </row>
-    <row r="179" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="179" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A179" s="4" t="s">
         <v>15</v>
       </c>
@@ -6616,7 +6620,7 @@
       <c r="J179" s="4"/>
       <c r="K179" s="4"/>
     </row>
-    <row r="180" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="180" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A180" s="4" t="s">
         <v>15</v>
       </c>
@@ -6647,7 +6651,7 @@
       <c r="J180" s="4"/>
       <c r="K180" s="4"/>
     </row>
-    <row r="181" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="181" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A181" s="4" t="s">
         <v>15</v>
       </c>
@@ -6678,7 +6682,7 @@
       <c r="J181" s="4"/>
       <c r="K181" s="4"/>
     </row>
-    <row r="182" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="182" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A182" s="4" t="s">
         <v>15</v>
       </c>
@@ -6709,7 +6713,7 @@
       <c r="J182" s="4"/>
       <c r="K182" s="4"/>
     </row>
-    <row r="183" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="183" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A183" s="4" t="s">
         <v>15</v>
       </c>
@@ -6740,7 +6744,7 @@
       <c r="J183" s="4"/>
       <c r="K183" s="4"/>
     </row>
-    <row r="184" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="184" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A184" s="4" t="s">
         <v>15</v>
       </c>
@@ -6771,7 +6775,7 @@
       <c r="J184" s="4"/>
       <c r="K184" s="4"/>
     </row>
-    <row r="185" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="185" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A185" s="4" t="s">
         <v>15</v>
       </c>
@@ -6802,7 +6806,7 @@
       <c r="J185" s="4"/>
       <c r="K185" s="4"/>
     </row>
-    <row r="186" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="186" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A186" s="4" t="s">
         <v>15</v>
       </c>
@@ -6833,7 +6837,7 @@
       <c r="J186" s="4"/>
       <c r="K186" s="4"/>
     </row>
-    <row r="187" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="187" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A187" s="4" t="s">
         <v>15</v>
       </c>
@@ -6864,7 +6868,7 @@
       <c r="J187" s="4"/>
       <c r="K187" s="4"/>
     </row>
-    <row r="188" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="188" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A188" s="4" t="s">
         <v>15</v>
       </c>
@@ -6895,7 +6899,7 @@
       <c r="J188" s="4"/>
       <c r="K188" s="4"/>
     </row>
-    <row r="189" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="189" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A189" s="4" t="s">
         <v>15</v>
       </c>
@@ -6926,7 +6930,7 @@
       <c r="J189" s="4"/>
       <c r="K189" s="4"/>
     </row>
-    <row r="190" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="190" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A190" s="4" t="s">
         <v>15</v>
       </c>
@@ -6957,7 +6961,7 @@
       <c r="J190" s="4"/>
       <c r="K190" s="4"/>
     </row>
-    <row r="191" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="191" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A191" s="4" t="s">
         <v>15</v>
       </c>
@@ -6988,7 +6992,7 @@
       <c r="J191" s="4"/>
       <c r="K191" s="4"/>
     </row>
-    <row r="192" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="192" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A192" s="4" t="s">
         <v>15</v>
       </c>
@@ -7019,7 +7023,7 @@
       <c r="J192" s="4"/>
       <c r="K192" s="4"/>
     </row>
-    <row r="193" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="193" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A193" s="4" t="s">
         <v>15</v>
       </c>
@@ -7050,7 +7054,7 @@
       <c r="J193" s="4"/>
       <c r="K193" s="4"/>
     </row>
-    <row r="194" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="194" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A194" s="4" t="s">
         <v>15</v>
       </c>
@@ -7081,7 +7085,7 @@
       <c r="J194" s="4"/>
       <c r="K194" s="4"/>
     </row>
-    <row r="195" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="195" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A195" s="4" t="s">
         <v>15</v>
       </c>
@@ -7112,7 +7116,7 @@
       <c r="J195" s="4"/>
       <c r="K195" s="4"/>
     </row>
-    <row r="196" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="196" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A196" s="4" t="s">
         <v>15</v>
       </c>
@@ -7143,7 +7147,7 @@
       <c r="J196" s="4"/>
       <c r="K196" s="4"/>
     </row>
-    <row r="197" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="197" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A197" s="4" t="s">
         <v>15</v>
       </c>
@@ -7174,7 +7178,7 @@
       <c r="J197" s="4"/>
       <c r="K197" s="4"/>
     </row>
-    <row r="198" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="198" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A198" s="4" t="s">
         <v>15</v>
       </c>
@@ -7205,7 +7209,7 @@
       <c r="J198" s="4"/>
       <c r="K198" s="4"/>
     </row>
-    <row r="199" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="199" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A199" s="4" t="s">
         <v>15</v>
       </c>
@@ -7236,7 +7240,7 @@
       <c r="J199" s="4"/>
       <c r="K199" s="4"/>
     </row>
-    <row r="200" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="200" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A200" s="4" t="s">
         <v>15</v>
       </c>
@@ -7267,7 +7271,7 @@
       <c r="J200" s="4"/>
       <c r="K200" s="4"/>
     </row>
-    <row r="201" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="201" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A201" s="4" t="s">
         <v>15</v>
       </c>
@@ -7298,7 +7302,7 @@
       <c r="J201" s="4"/>
       <c r="K201" s="4"/>
     </row>
-    <row r="202" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="202" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A202" s="4" t="s">
         <v>16</v>
       </c>
@@ -7329,7 +7333,7 @@
       <c r="J202" s="4"/>
       <c r="K202" s="4"/>
     </row>
-    <row r="203" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="203" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A203" s="4" t="s">
         <v>16</v>
       </c>
@@ -7360,7 +7364,7 @@
       <c r="J203" s="4"/>
       <c r="K203" s="4"/>
     </row>
-    <row r="204" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="204" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A204" s="4" t="s">
         <v>16</v>
       </c>
@@ -7391,7 +7395,7 @@
       <c r="J204" s="4"/>
       <c r="K204" s="4"/>
     </row>
-    <row r="205" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="205" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A205" s="4" t="s">
         <v>16</v>
       </c>
@@ -7422,7 +7426,7 @@
       <c r="J205" s="4"/>
       <c r="K205" s="4"/>
     </row>
-    <row r="206" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="206" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A206" s="4" t="s">
         <v>16</v>
       </c>
@@ -7453,7 +7457,7 @@
       <c r="J206" s="4"/>
       <c r="K206" s="4"/>
     </row>
-    <row r="207" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="207" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A207" s="4" t="s">
         <v>16</v>
       </c>
@@ -7484,7 +7488,7 @@
       <c r="J207" s="4"/>
       <c r="K207" s="4"/>
     </row>
-    <row r="208" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="208" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A208" s="4" t="s">
         <v>16</v>
       </c>
@@ -7515,7 +7519,7 @@
       <c r="J208" s="4"/>
       <c r="K208" s="4"/>
     </row>
-    <row r="209" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="209" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A209" s="4" t="s">
         <v>16</v>
       </c>
@@ -7546,7 +7550,7 @@
       <c r="J209" s="4"/>
       <c r="K209" s="4"/>
     </row>
-    <row r="210" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="210" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A210" s="4" t="s">
         <v>16</v>
       </c>
@@ -7577,7 +7581,7 @@
       <c r="J210" s="4"/>
       <c r="K210" s="4"/>
     </row>
-    <row r="211" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="211" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A211" s="4" t="s">
         <v>16</v>
       </c>
@@ -7608,7 +7612,7 @@
       <c r="J211" s="4"/>
       <c r="K211" s="4"/>
     </row>
-    <row r="212" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="212" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A212" s="4" t="s">
         <v>16</v>
       </c>
@@ -7639,7 +7643,7 @@
       <c r="J212" s="4"/>
       <c r="K212" s="4"/>
     </row>
-    <row r="213" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="213" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A213" s="4" t="s">
         <v>16</v>
       </c>
@@ -7670,7 +7674,7 @@
       <c r="J213" s="4"/>
       <c r="K213" s="4"/>
     </row>
-    <row r="214" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="214" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A214" s="4" t="s">
         <v>16</v>
       </c>
@@ -7701,7 +7705,7 @@
       <c r="J214" s="4"/>
       <c r="K214" s="4"/>
     </row>
-    <row r="215" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="215" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A215" s="4" t="s">
         <v>16</v>
       </c>
@@ -7732,7 +7736,7 @@
       <c r="J215" s="4"/>
       <c r="K215" s="4"/>
     </row>
-    <row r="216" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="216" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A216" s="4" t="s">
         <v>16</v>
       </c>
@@ -7763,7 +7767,7 @@
       <c r="J216" s="4"/>
       <c r="K216" s="4"/>
     </row>
-    <row r="217" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="217" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A217" s="4" t="s">
         <v>16</v>
       </c>
@@ -7794,7 +7798,7 @@
       <c r="J217" s="4"/>
       <c r="K217" s="4"/>
     </row>
-    <row r="218" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="218" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A218" s="4" t="s">
         <v>16</v>
       </c>
@@ -7825,7 +7829,7 @@
       <c r="J218" s="4"/>
       <c r="K218" s="4"/>
     </row>
-    <row r="219" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="219" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A219" s="4" t="s">
         <v>16</v>
       </c>
@@ -7856,7 +7860,7 @@
       <c r="J219" s="4"/>
       <c r="K219" s="4"/>
     </row>
-    <row r="220" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="220" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A220" s="4" t="s">
         <v>16</v>
       </c>
@@ -7887,7 +7891,7 @@
       <c r="J220" s="4"/>
       <c r="K220" s="4"/>
     </row>
-    <row r="221" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="221" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A221" s="4" t="s">
         <v>16</v>
       </c>
@@ -7918,7 +7922,7 @@
       <c r="J221" s="4"/>
       <c r="K221" s="4"/>
     </row>
-    <row r="222" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="222" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A222" s="4" t="s">
         <v>16</v>
       </c>
@@ -7949,7 +7953,7 @@
       <c r="J222" s="4"/>
       <c r="K222" s="4"/>
     </row>
-    <row r="223" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="223" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A223" s="4" t="s">
         <v>16</v>
       </c>
@@ -7980,7 +7984,7 @@
       <c r="J223" s="4"/>
       <c r="K223" s="4"/>
     </row>
-    <row r="224" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="224" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A224" s="4" t="s">
         <v>16</v>
       </c>
@@ -8011,7 +8015,7 @@
       <c r="J224" s="4"/>
       <c r="K224" s="4"/>
     </row>
-    <row r="225" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="225" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A225" s="4" t="s">
         <v>16</v>
       </c>
@@ -8042,7 +8046,7 @@
       <c r="J225" s="4"/>
       <c r="K225" s="4"/>
     </row>
-    <row r="226" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="226" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A226" s="4" t="s">
         <v>16</v>
       </c>
@@ -8073,7 +8077,7 @@
       <c r="J226" s="4"/>
       <c r="K226" s="4"/>
     </row>
-    <row r="227" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="227" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A227" s="4" t="s">
         <v>16</v>
       </c>
@@ -8104,7 +8108,7 @@
       <c r="J227" s="4"/>
       <c r="K227" s="4"/>
     </row>
-    <row r="228" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="228" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A228" s="4" t="s">
         <v>16</v>
       </c>
@@ -8135,7 +8139,7 @@
       <c r="J228" s="4"/>
       <c r="K228" s="4"/>
     </row>
-    <row r="229" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="229" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A229" s="4" t="s">
         <v>16</v>
       </c>
@@ -8166,7 +8170,7 @@
       <c r="J229" s="4"/>
       <c r="K229" s="4"/>
     </row>
-    <row r="230" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="230" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A230" s="4" t="s">
         <v>16</v>
       </c>
@@ -8197,7 +8201,7 @@
       <c r="J230" s="4"/>
       <c r="K230" s="4"/>
     </row>
-    <row r="231" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="231" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A231" s="4" t="s">
         <v>16</v>
       </c>
@@ -8228,7 +8232,7 @@
       <c r="J231" s="4"/>
       <c r="K231" s="4"/>
     </row>
-    <row r="232" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="232" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A232" s="4" t="s">
         <v>16</v>
       </c>
@@ -8259,7 +8263,7 @@
       <c r="J232" s="4"/>
       <c r="K232" s="4"/>
     </row>
-    <row r="233" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="233" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A233" s="4" t="s">
         <v>16</v>
       </c>
@@ -8290,7 +8294,7 @@
       <c r="J233" s="4"/>
       <c r="K233" s="4"/>
     </row>
-    <row r="234" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="234" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A234" s="4" t="s">
         <v>16</v>
       </c>
@@ -8321,7 +8325,7 @@
       <c r="J234" s="4"/>
       <c r="K234" s="4"/>
     </row>
-    <row r="235" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="235" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A235" s="4" t="s">
         <v>16</v>
       </c>
@@ -8352,7 +8356,7 @@
       <c r="J235" s="4"/>
       <c r="K235" s="4"/>
     </row>
-    <row r="236" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="236" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A236" s="4" t="s">
         <v>16</v>
       </c>
@@ -8383,7 +8387,7 @@
       <c r="J236" s="4"/>
       <c r="K236" s="4"/>
     </row>
-    <row r="237" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="237" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A237" s="4" t="s">
         <v>16</v>
       </c>
@@ -8414,7 +8418,7 @@
       <c r="J237" s="4"/>
       <c r="K237" s="4"/>
     </row>
-    <row r="238" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="238" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A238" s="4" t="s">
         <v>16</v>
       </c>
@@ -8445,7 +8449,7 @@
       <c r="J238" s="4"/>
       <c r="K238" s="4"/>
     </row>
-    <row r="239" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="239" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A239" s="4" t="s">
         <v>16</v>
       </c>
@@ -8476,7 +8480,7 @@
       <c r="J239" s="4"/>
       <c r="K239" s="4"/>
     </row>
-    <row r="240" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="240" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A240" s="4" t="s">
         <v>16</v>
       </c>
@@ -8507,7 +8511,7 @@
       <c r="J240" s="4"/>
       <c r="K240" s="4"/>
     </row>
-    <row r="241" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="241" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A241" s="4" t="s">
         <v>16</v>
       </c>
@@ -8538,7 +8542,7 @@
       <c r="J241" s="4"/>
       <c r="K241" s="4"/>
     </row>
-    <row r="242" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="242" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A242" s="4" t="s">
         <v>16</v>
       </c>
@@ -8569,7 +8573,7 @@
       <c r="J242" s="4"/>
       <c r="K242" s="4"/>
     </row>
-    <row r="243" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="243" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A243" s="4" t="s">
         <v>16</v>
       </c>
@@ -8600,7 +8604,7 @@
       <c r="J243" s="4"/>
       <c r="K243" s="4"/>
     </row>
-    <row r="244" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="244" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A244" s="4" t="s">
         <v>16</v>
       </c>
@@ -8631,7 +8635,7 @@
       <c r="J244" s="4"/>
       <c r="K244" s="4"/>
     </row>
-    <row r="245" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="245" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A245" s="4" t="s">
         <v>16</v>
       </c>
@@ -8662,7 +8666,7 @@
       <c r="J245" s="4"/>
       <c r="K245" s="4"/>
     </row>
-    <row r="246" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="246" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A246" s="4" t="s">
         <v>16</v>
       </c>
@@ -8693,7 +8697,7 @@
       <c r="J246" s="4"/>
       <c r="K246" s="4"/>
     </row>
-    <row r="247" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="247" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A247" s="4" t="s">
         <v>16</v>
       </c>
@@ -8724,7 +8728,7 @@
       <c r="J247" s="4"/>
       <c r="K247" s="4"/>
     </row>
-    <row r="248" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="248" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A248" s="4" t="s">
         <v>16</v>
       </c>
@@ -8755,7 +8759,7 @@
       <c r="J248" s="4"/>
       <c r="K248" s="4"/>
     </row>
-    <row r="249" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="249" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A249" s="4" t="s">
         <v>16</v>
       </c>
@@ -8786,7 +8790,7 @@
       <c r="J249" s="4"/>
       <c r="K249" s="4"/>
     </row>
-    <row r="250" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="250" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A250" s="4" t="s">
         <v>16</v>
       </c>
@@ -8817,7 +8821,7 @@
       <c r="J250" s="4"/>
       <c r="K250" s="4"/>
     </row>
-    <row r="251" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="251" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A251" s="4" t="s">
         <v>16</v>
       </c>
@@ -10398,7 +10402,7 @@
       <c r="J301" s="4"/>
       <c r="K301" s="4"/>
     </row>
-    <row r="302" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="302" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A302" s="4" t="s">
         <v>18</v>
       </c>
@@ -10429,7 +10433,7 @@
       <c r="J302" s="4"/>
       <c r="K302" s="4"/>
     </row>
-    <row r="303" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="303" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A303" s="4" t="s">
         <v>18</v>
       </c>
@@ -10460,7 +10464,7 @@
       <c r="J303" s="4"/>
       <c r="K303" s="4"/>
     </row>
-    <row r="304" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="304" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A304" s="4" t="s">
         <v>18</v>
       </c>
@@ -10491,7 +10495,7 @@
       <c r="J304" s="4"/>
       <c r="K304" s="4"/>
     </row>
-    <row r="305" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="305" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A305" s="4" t="s">
         <v>18</v>
       </c>
@@ -10522,7 +10526,7 @@
       <c r="J305" s="4"/>
       <c r="K305" s="4"/>
     </row>
-    <row r="306" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="306" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A306" s="4" t="s">
         <v>18</v>
       </c>
@@ -10553,7 +10557,7 @@
       <c r="J306" s="4"/>
       <c r="K306" s="4"/>
     </row>
-    <row r="307" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="307" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A307" s="4" t="s">
         <v>18</v>
       </c>
@@ -10584,7 +10588,7 @@
       <c r="J307" s="4"/>
       <c r="K307" s="4"/>
     </row>
-    <row r="308" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="308" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A308" s="4" t="s">
         <v>18</v>
       </c>
@@ -10615,7 +10619,7 @@
       <c r="J308" s="4"/>
       <c r="K308" s="4"/>
     </row>
-    <row r="309" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="309" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A309" s="4" t="s">
         <v>18</v>
       </c>
@@ -10646,7 +10650,7 @@
       <c r="J309" s="4"/>
       <c r="K309" s="4"/>
     </row>
-    <row r="310" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="310" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A310" s="4" t="s">
         <v>18</v>
       </c>
@@ -10677,7 +10681,7 @@
       <c r="J310" s="4"/>
       <c r="K310" s="4"/>
     </row>
-    <row r="311" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="311" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A311" s="4" t="s">
         <v>18</v>
       </c>
@@ -10708,7 +10712,7 @@
       <c r="J311" s="4"/>
       <c r="K311" s="4"/>
     </row>
-    <row r="312" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="312" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A312" s="4" t="s">
         <v>18</v>
       </c>
@@ -10739,7 +10743,7 @@
       <c r="J312" s="4"/>
       <c r="K312" s="4"/>
     </row>
-    <row r="313" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="313" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A313" s="4" t="s">
         <v>18</v>
       </c>
@@ -10770,7 +10774,7 @@
       <c r="J313" s="4"/>
       <c r="K313" s="4"/>
     </row>
-    <row r="314" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="314" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A314" s="4" t="s">
         <v>18</v>
       </c>
@@ -10801,7 +10805,7 @@
       <c r="J314" s="4"/>
       <c r="K314" s="4"/>
     </row>
-    <row r="315" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="315" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A315" s="4" t="s">
         <v>18</v>
       </c>
@@ -10832,7 +10836,7 @@
       <c r="J315" s="4"/>
       <c r="K315" s="4"/>
     </row>
-    <row r="316" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="316" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A316" s="4" t="s">
         <v>18</v>
       </c>
@@ -10863,7 +10867,7 @@
       <c r="J316" s="4"/>
       <c r="K316" s="4"/>
     </row>
-    <row r="317" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="317" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A317" s="4" t="s">
         <v>18</v>
       </c>
@@ -10894,7 +10898,7 @@
       <c r="J317" s="4"/>
       <c r="K317" s="4"/>
     </row>
-    <row r="318" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="318" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A318" s="4" t="s">
         <v>18</v>
       </c>
@@ -10925,7 +10929,7 @@
       <c r="J318" s="4"/>
       <c r="K318" s="4"/>
     </row>
-    <row r="319" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="319" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A319" s="4" t="s">
         <v>18</v>
       </c>
@@ -10956,7 +10960,7 @@
       <c r="J319" s="4"/>
       <c r="K319" s="4"/>
     </row>
-    <row r="320" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="320" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A320" s="4" t="s">
         <v>18</v>
       </c>
@@ -10987,7 +10991,7 @@
       <c r="J320" s="4"/>
       <c r="K320" s="4"/>
     </row>
-    <row r="321" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="321" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A321" s="4" t="s">
         <v>18</v>
       </c>
@@ -11018,7 +11022,7 @@
       <c r="J321" s="4"/>
       <c r="K321" s="4"/>
     </row>
-    <row r="322" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="322" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A322" s="4" t="s">
         <v>18</v>
       </c>
@@ -11049,7 +11053,7 @@
       <c r="J322" s="4"/>
       <c r="K322" s="4"/>
     </row>
-    <row r="323" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="323" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A323" s="4" t="s">
         <v>18</v>
       </c>
@@ -11080,7 +11084,7 @@
       <c r="J323" s="4"/>
       <c r="K323" s="4"/>
     </row>
-    <row r="324" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="324" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A324" s="4" t="s">
         <v>18</v>
       </c>
@@ -11111,7 +11115,7 @@
       <c r="J324" s="4"/>
       <c r="K324" s="4"/>
     </row>
-    <row r="325" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="325" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A325" s="4" t="s">
         <v>18</v>
       </c>
@@ -11142,7 +11146,7 @@
       <c r="J325" s="4"/>
       <c r="K325" s="4"/>
     </row>
-    <row r="326" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="326" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A326" s="4" t="s">
         <v>18</v>
       </c>
@@ -11173,7 +11177,7 @@
       <c r="J326" s="4"/>
       <c r="K326" s="4"/>
     </row>
-    <row r="327" s="1" customFormat="1" ht="12" spans="1:11">
+    <row r="327" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
       <c r="A327" s="4" t="s">
         <v>18</v>
       </c>
@@ -11466,6 +11470,14 @@
       <c r="K336" s="3"/>
     </row>
   </sheetData>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:I335" etc:filterBottomFollowUsedRange="0">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="F"/>
+      </filters>
+    </filterColumn>
+    <extLst/>
+  </autoFilter>
   <sortState ref="A2:L335">
     <sortCondition ref="A2:A335"/>
   </sortState>

--- a/Sosya/R_calc_DinFET/Data/Din Fet 2024.xlsx
+++ b/Sosya/R_calc_DinFET/Data/Din Fet 2024.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9120"/>
+    <workbookView windowWidth="22188" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -721,19 +721,22 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1054,16 +1057,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:K336"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="14.5740740740741" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="8.85185185185185" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="7" max="7" width="12.1388888888889" customWidth="1"/>
@@ -1099,10 +1103,10 @@
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -1133,7 +1137,7 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="3" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -1164,7 +1168,7 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="4" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
@@ -1195,7 +1199,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="5" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -2776,7 +2780,7 @@
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
     </row>
-    <row r="56" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="56" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A56" s="4" t="s">
         <v>9</v>
       </c>
@@ -2807,7 +2811,7 @@
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
     </row>
-    <row r="57" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="57" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A57" s="4" t="s">
         <v>9</v>
       </c>
@@ -2838,7 +2842,7 @@
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
     </row>
-    <row r="58" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="58" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A58" s="4" t="s">
         <v>9</v>
       </c>
@@ -2869,7 +2873,7 @@
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
     </row>
-    <row r="59" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="59" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A59" s="4" t="s">
         <v>9</v>
       </c>
@@ -2900,7 +2904,7 @@
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
     </row>
-    <row r="60" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="60" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A60" s="4" t="s">
         <v>9</v>
       </c>
@@ -2931,7 +2935,7 @@
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
     </row>
-    <row r="61" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="61" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A61" s="4" t="s">
         <v>9</v>
       </c>
@@ -2962,7 +2966,7 @@
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
     </row>
-    <row r="62" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="62" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A62" s="4" t="s">
         <v>9</v>
       </c>
@@ -2993,7 +2997,7 @@
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
     </row>
-    <row r="63" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="63" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A63" s="4" t="s">
         <v>9</v>
       </c>
@@ -3024,7 +3028,7 @@
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
     </row>
-    <row r="64" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="64" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A64" s="4" t="s">
         <v>9</v>
       </c>
@@ -3055,7 +3059,7 @@
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
     </row>
-    <row r="65" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="65" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A65" s="4" t="s">
         <v>9</v>
       </c>
@@ -3086,7 +3090,7 @@
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
     </row>
-    <row r="66" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="66" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A66" s="4" t="s">
         <v>9</v>
       </c>
@@ -3117,7 +3121,7 @@
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
     </row>
-    <row r="67" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="67" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A67" s="4" t="s">
         <v>9</v>
       </c>
@@ -3148,7 +3152,7 @@
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
     </row>
-    <row r="68" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="68" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A68" s="4" t="s">
         <v>9</v>
       </c>
@@ -3179,7 +3183,7 @@
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
     </row>
-    <row r="69" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="69" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A69" s="4" t="s">
         <v>9</v>
       </c>
@@ -3210,7 +3214,7 @@
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
     </row>
-    <row r="70" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="70" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A70" s="4" t="s">
         <v>9</v>
       </c>
@@ -3241,7 +3245,7 @@
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
     </row>
-    <row r="71" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="71" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A71" s="4" t="s">
         <v>9</v>
       </c>
@@ -3272,7 +3276,7 @@
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
     </row>
-    <row r="72" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="72" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A72" s="4" t="s">
         <v>9</v>
       </c>
@@ -3303,7 +3307,7 @@
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
     </row>
-    <row r="73" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="73" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A73" s="4" t="s">
         <v>9</v>
       </c>
@@ -3334,7 +3338,7 @@
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
     </row>
-    <row r="74" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="74" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A74" s="4" t="s">
         <v>9</v>
       </c>
@@ -3365,7 +3369,7 @@
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
     </row>
-    <row r="75" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="75" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A75" s="4" t="s">
         <v>9</v>
       </c>
@@ -3396,7 +3400,7 @@
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
     </row>
-    <row r="76" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="76" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A76" s="4" t="s">
         <v>9</v>
       </c>
@@ -3427,7 +3431,7 @@
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
     </row>
-    <row r="77" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="77" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A77" s="4" t="s">
         <v>9</v>
       </c>
@@ -3458,7 +3462,7 @@
       <c r="J77" s="4"/>
       <c r="K77" s="4"/>
     </row>
-    <row r="78" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="78" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A78" s="4" t="s">
         <v>9</v>
       </c>
@@ -3489,7 +3493,7 @@
       <c r="J78" s="4"/>
       <c r="K78" s="4"/>
     </row>
-    <row r="79" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="79" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A79" s="4" t="s">
         <v>9</v>
       </c>
@@ -3520,7 +3524,7 @@
       <c r="J79" s="4"/>
       <c r="K79" s="4"/>
     </row>
-    <row r="80" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="80" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A80" s="4" t="s">
         <v>9</v>
       </c>
@@ -3551,7 +3555,7 @@
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
     </row>
-    <row r="81" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="81" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A81" s="4" t="s">
         <v>9</v>
       </c>
@@ -3582,7 +3586,7 @@
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
     </row>
-    <row r="82" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="82" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A82" s="4" t="s">
         <v>9</v>
       </c>
@@ -3613,7 +3617,7 @@
       <c r="J82" s="4"/>
       <c r="K82" s="4"/>
     </row>
-    <row r="83" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="83" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A83" s="4" t="s">
         <v>9</v>
       </c>
@@ -3644,7 +3648,7 @@
       <c r="J83" s="4"/>
       <c r="K83" s="4"/>
     </row>
-    <row r="84" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="84" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A84" s="4" t="s">
         <v>9</v>
       </c>
@@ -3675,7 +3679,7 @@
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
     </row>
-    <row r="85" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="85" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A85" s="4" t="s">
         <v>9</v>
       </c>
@@ -3706,7 +3710,7 @@
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
     </row>
-    <row r="86" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="86" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A86" s="4" t="s">
         <v>9</v>
       </c>
@@ -3737,7 +3741,7 @@
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
     </row>
-    <row r="87" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="87" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A87" s="4" t="s">
         <v>9</v>
       </c>
@@ -3768,7 +3772,7 @@
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
     </row>
-    <row r="88" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="88" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A88" s="4" t="s">
         <v>9</v>
       </c>
@@ -3799,7 +3803,7 @@
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
     </row>
-    <row r="89" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="89" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A89" s="4" t="s">
         <v>9</v>
       </c>
@@ -3830,7 +3834,7 @@
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
     </row>
-    <row r="90" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="90" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A90" s="4" t="s">
         <v>9</v>
       </c>
@@ -3861,7 +3865,7 @@
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
     </row>
-    <row r="91" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="91" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A91" s="4" t="s">
         <v>9</v>
       </c>
@@ -3892,7 +3896,7 @@
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
     </row>
-    <row r="92" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="92" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A92" s="4" t="s">
         <v>9</v>
       </c>
@@ -3923,7 +3927,7 @@
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
     </row>
-    <row r="93" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="93" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A93" s="4" t="s">
         <v>9</v>
       </c>
@@ -3954,7 +3958,7 @@
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
     </row>
-    <row r="94" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="94" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A94" s="4" t="s">
         <v>9</v>
       </c>
@@ -3985,7 +3989,7 @@
       <c r="J94" s="4"/>
       <c r="K94" s="4"/>
     </row>
-    <row r="95" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="95" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A95" s="4" t="s">
         <v>9</v>
       </c>
@@ -4016,7 +4020,7 @@
       <c r="J95" s="4"/>
       <c r="K95" s="4"/>
     </row>
-    <row r="96" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="96" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A96" s="4" t="s">
         <v>9</v>
       </c>
@@ -4047,7 +4051,7 @@
       <c r="J96" s="4"/>
       <c r="K96" s="4"/>
     </row>
-    <row r="97" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="97" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A97" s="4" t="s">
         <v>9</v>
       </c>
@@ -4078,7 +4082,7 @@
       <c r="J97" s="4"/>
       <c r="K97" s="4"/>
     </row>
-    <row r="98" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="98" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A98" s="4" t="s">
         <v>9</v>
       </c>
@@ -4109,7 +4113,7 @@
       <c r="J98" s="4"/>
       <c r="K98" s="4"/>
     </row>
-    <row r="99" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="99" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A99" s="4" t="s">
         <v>9</v>
       </c>
@@ -4140,7 +4144,7 @@
       <c r="J99" s="4"/>
       <c r="K99" s="4"/>
     </row>
-    <row r="100" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="100" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A100" s="4" t="s">
         <v>9</v>
       </c>
@@ -4171,7 +4175,7 @@
       <c r="J100" s="4"/>
       <c r="K100" s="4"/>
     </row>
-    <row r="101" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="101" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A101" s="4" t="s">
         <v>9</v>
       </c>
@@ -5752,7 +5756,7 @@
       <c r="J151" s="4"/>
       <c r="K151" s="4"/>
     </row>
-    <row r="152" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="152" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A152" s="4" t="s">
         <v>15</v>
       </c>
@@ -5783,7 +5787,7 @@
       <c r="J152" s="4"/>
       <c r="K152" s="4"/>
     </row>
-    <row r="153" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="153" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A153" s="4" t="s">
         <v>15</v>
       </c>
@@ -5814,7 +5818,7 @@
       <c r="J153" s="4"/>
       <c r="K153" s="4"/>
     </row>
-    <row r="154" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="154" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A154" s="4" t="s">
         <v>15</v>
       </c>
@@ -5845,7 +5849,7 @@
       <c r="J154" s="4"/>
       <c r="K154" s="4"/>
     </row>
-    <row r="155" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="155" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A155" s="4" t="s">
         <v>15</v>
       </c>
@@ -5876,7 +5880,7 @@
       <c r="J155" s="4"/>
       <c r="K155" s="4"/>
     </row>
-    <row r="156" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="156" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A156" s="4" t="s">
         <v>15</v>
       </c>
@@ -5907,7 +5911,7 @@
       <c r="J156" s="4"/>
       <c r="K156" s="4"/>
     </row>
-    <row r="157" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="157" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A157" s="4" t="s">
         <v>15</v>
       </c>
@@ -5938,7 +5942,7 @@
       <c r="J157" s="4"/>
       <c r="K157" s="4"/>
     </row>
-    <row r="158" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="158" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A158" s="4" t="s">
         <v>15</v>
       </c>
@@ -5969,7 +5973,7 @@
       <c r="J158" s="4"/>
       <c r="K158" s="4"/>
     </row>
-    <row r="159" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="159" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A159" s="4" t="s">
         <v>15</v>
       </c>
@@ -6000,7 +6004,7 @@
       <c r="J159" s="4"/>
       <c r="K159" s="4"/>
     </row>
-    <row r="160" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="160" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A160" s="4" t="s">
         <v>15</v>
       </c>
@@ -6031,7 +6035,7 @@
       <c r="J160" s="4"/>
       <c r="K160" s="4"/>
     </row>
-    <row r="161" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="161" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A161" s="4" t="s">
         <v>15</v>
       </c>
@@ -6062,7 +6066,7 @@
       <c r="J161" s="4"/>
       <c r="K161" s="4"/>
     </row>
-    <row r="162" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="162" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A162" s="4" t="s">
         <v>15</v>
       </c>
@@ -6093,7 +6097,7 @@
       <c r="J162" s="4"/>
       <c r="K162" s="4"/>
     </row>
-    <row r="163" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="163" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A163" s="4" t="s">
         <v>15</v>
       </c>
@@ -6124,7 +6128,7 @@
       <c r="J163" s="4"/>
       <c r="K163" s="4"/>
     </row>
-    <row r="164" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="164" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A164" s="4" t="s">
         <v>15</v>
       </c>
@@ -6155,7 +6159,7 @@
       <c r="J164" s="4"/>
       <c r="K164" s="4"/>
     </row>
-    <row r="165" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="165" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A165" s="4" t="s">
         <v>15</v>
       </c>
@@ -6186,7 +6190,7 @@
       <c r="J165" s="4"/>
       <c r="K165" s="4"/>
     </row>
-    <row r="166" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="166" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A166" s="4" t="s">
         <v>15</v>
       </c>
@@ -6217,7 +6221,7 @@
       <c r="J166" s="4"/>
       <c r="K166" s="4"/>
     </row>
-    <row r="167" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="167" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A167" s="4" t="s">
         <v>15</v>
       </c>
@@ -6248,7 +6252,7 @@
       <c r="J167" s="4"/>
       <c r="K167" s="4"/>
     </row>
-    <row r="168" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="168" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A168" s="4" t="s">
         <v>15</v>
       </c>
@@ -6279,7 +6283,7 @@
       <c r="J168" s="4"/>
       <c r="K168" s="4"/>
     </row>
-    <row r="169" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="169" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A169" s="4" t="s">
         <v>15</v>
       </c>
@@ -6310,7 +6314,7 @@
       <c r="J169" s="4"/>
       <c r="K169" s="4"/>
     </row>
-    <row r="170" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="170" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A170" s="4" t="s">
         <v>15</v>
       </c>
@@ -6341,7 +6345,7 @@
       <c r="J170" s="4"/>
       <c r="K170" s="4"/>
     </row>
-    <row r="171" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="171" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A171" s="4" t="s">
         <v>15</v>
       </c>
@@ -6372,7 +6376,7 @@
       <c r="J171" s="4"/>
       <c r="K171" s="4"/>
     </row>
-    <row r="172" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="172" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A172" s="4" t="s">
         <v>15</v>
       </c>
@@ -6403,7 +6407,7 @@
       <c r="J172" s="4"/>
       <c r="K172" s="4"/>
     </row>
-    <row r="173" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="173" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A173" s="4" t="s">
         <v>15</v>
       </c>
@@ -6434,7 +6438,7 @@
       <c r="J173" s="4"/>
       <c r="K173" s="4"/>
     </row>
-    <row r="174" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="174" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A174" s="4" t="s">
         <v>15</v>
       </c>
@@ -6465,7 +6469,7 @@
       <c r="J174" s="4"/>
       <c r="K174" s="4"/>
     </row>
-    <row r="175" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="175" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A175" s="4" t="s">
         <v>15</v>
       </c>
@@ -6496,7 +6500,7 @@
       <c r="J175" s="4"/>
       <c r="K175" s="4"/>
     </row>
-    <row r="176" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="176" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A176" s="4" t="s">
         <v>15</v>
       </c>
@@ -6527,7 +6531,7 @@
       <c r="J176" s="4"/>
       <c r="K176" s="4"/>
     </row>
-    <row r="177" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="177" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A177" s="4" t="s">
         <v>15</v>
       </c>
@@ -6558,7 +6562,7 @@
       <c r="J177" s="4"/>
       <c r="K177" s="4"/>
     </row>
-    <row r="178" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="178" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A178" s="4" t="s">
         <v>15</v>
       </c>
@@ -6589,7 +6593,7 @@
       <c r="J178" s="4"/>
       <c r="K178" s="4"/>
     </row>
-    <row r="179" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="179" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A179" s="4" t="s">
         <v>15</v>
       </c>
@@ -6620,7 +6624,7 @@
       <c r="J179" s="4"/>
       <c r="K179" s="4"/>
     </row>
-    <row r="180" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="180" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A180" s="4" t="s">
         <v>15</v>
       </c>
@@ -6651,7 +6655,7 @@
       <c r="J180" s="4"/>
       <c r="K180" s="4"/>
     </row>
-    <row r="181" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="181" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A181" s="4" t="s">
         <v>15</v>
       </c>
@@ -6682,7 +6686,7 @@
       <c r="J181" s="4"/>
       <c r="K181" s="4"/>
     </row>
-    <row r="182" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="182" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A182" s="4" t="s">
         <v>15</v>
       </c>
@@ -6713,7 +6717,7 @@
       <c r="J182" s="4"/>
       <c r="K182" s="4"/>
     </row>
-    <row r="183" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="183" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A183" s="4" t="s">
         <v>15</v>
       </c>
@@ -6744,7 +6748,7 @@
       <c r="J183" s="4"/>
       <c r="K183" s="4"/>
     </row>
-    <row r="184" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="184" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A184" s="4" t="s">
         <v>15</v>
       </c>
@@ -6775,7 +6779,7 @@
       <c r="J184" s="4"/>
       <c r="K184" s="4"/>
     </row>
-    <row r="185" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="185" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A185" s="4" t="s">
         <v>15</v>
       </c>
@@ -6806,7 +6810,7 @@
       <c r="J185" s="4"/>
       <c r="K185" s="4"/>
     </row>
-    <row r="186" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="186" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A186" s="4" t="s">
         <v>15</v>
       </c>
@@ -6837,7 +6841,7 @@
       <c r="J186" s="4"/>
       <c r="K186" s="4"/>
     </row>
-    <row r="187" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="187" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A187" s="4" t="s">
         <v>15</v>
       </c>
@@ -6868,7 +6872,7 @@
       <c r="J187" s="4"/>
       <c r="K187" s="4"/>
     </row>
-    <row r="188" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="188" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A188" s="4" t="s">
         <v>15</v>
       </c>
@@ -6899,7 +6903,7 @@
       <c r="J188" s="4"/>
       <c r="K188" s="4"/>
     </row>
-    <row r="189" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="189" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A189" s="4" t="s">
         <v>15</v>
       </c>
@@ -6930,7 +6934,7 @@
       <c r="J189" s="4"/>
       <c r="K189" s="4"/>
     </row>
-    <row r="190" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="190" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A190" s="4" t="s">
         <v>15</v>
       </c>
@@ -6961,7 +6965,7 @@
       <c r="J190" s="4"/>
       <c r="K190" s="4"/>
     </row>
-    <row r="191" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="191" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A191" s="4" t="s">
         <v>15</v>
       </c>
@@ -6992,7 +6996,7 @@
       <c r="J191" s="4"/>
       <c r="K191" s="4"/>
     </row>
-    <row r="192" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="192" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A192" s="4" t="s">
         <v>15</v>
       </c>
@@ -7023,7 +7027,7 @@
       <c r="J192" s="4"/>
       <c r="K192" s="4"/>
     </row>
-    <row r="193" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="193" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A193" s="4" t="s">
         <v>15</v>
       </c>
@@ -7054,7 +7058,7 @@
       <c r="J193" s="4"/>
       <c r="K193" s="4"/>
     </row>
-    <row r="194" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="194" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A194" s="4" t="s">
         <v>15</v>
       </c>
@@ -7085,7 +7089,7 @@
       <c r="J194" s="4"/>
       <c r="K194" s="4"/>
     </row>
-    <row r="195" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="195" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A195" s="4" t="s">
         <v>15</v>
       </c>
@@ -7116,7 +7120,7 @@
       <c r="J195" s="4"/>
       <c r="K195" s="4"/>
     </row>
-    <row r="196" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="196" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A196" s="4" t="s">
         <v>15</v>
       </c>
@@ -7147,7 +7151,7 @@
       <c r="J196" s="4"/>
       <c r="K196" s="4"/>
     </row>
-    <row r="197" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="197" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A197" s="4" t="s">
         <v>15</v>
       </c>
@@ -7178,7 +7182,7 @@
       <c r="J197" s="4"/>
       <c r="K197" s="4"/>
     </row>
-    <row r="198" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="198" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A198" s="4" t="s">
         <v>15</v>
       </c>
@@ -7209,7 +7213,7 @@
       <c r="J198" s="4"/>
       <c r="K198" s="4"/>
     </row>
-    <row r="199" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="199" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A199" s="4" t="s">
         <v>15</v>
       </c>
@@ -7240,7 +7244,7 @@
       <c r="J199" s="4"/>
       <c r="K199" s="4"/>
     </row>
-    <row r="200" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="200" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A200" s="4" t="s">
         <v>15</v>
       </c>
@@ -7271,7 +7275,7 @@
       <c r="J200" s="4"/>
       <c r="K200" s="4"/>
     </row>
-    <row r="201" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="201" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A201" s="4" t="s">
         <v>15</v>
       </c>
@@ -7302,7 +7306,7 @@
       <c r="J201" s="4"/>
       <c r="K201" s="4"/>
     </row>
-    <row r="202" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="202" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A202" s="4" t="s">
         <v>16</v>
       </c>
@@ -7333,7 +7337,7 @@
       <c r="J202" s="4"/>
       <c r="K202" s="4"/>
     </row>
-    <row r="203" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="203" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A203" s="4" t="s">
         <v>16</v>
       </c>
@@ -7364,7 +7368,7 @@
       <c r="J203" s="4"/>
       <c r="K203" s="4"/>
     </row>
-    <row r="204" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="204" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A204" s="4" t="s">
         <v>16</v>
       </c>
@@ -7395,7 +7399,7 @@
       <c r="J204" s="4"/>
       <c r="K204" s="4"/>
     </row>
-    <row r="205" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="205" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A205" s="4" t="s">
         <v>16</v>
       </c>
@@ -7426,7 +7430,7 @@
       <c r="J205" s="4"/>
       <c r="K205" s="4"/>
     </row>
-    <row r="206" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="206" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A206" s="4" t="s">
         <v>16</v>
       </c>
@@ -7457,7 +7461,7 @@
       <c r="J206" s="4"/>
       <c r="K206" s="4"/>
     </row>
-    <row r="207" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="207" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A207" s="4" t="s">
         <v>16</v>
       </c>
@@ -7488,7 +7492,7 @@
       <c r="J207" s="4"/>
       <c r="K207" s="4"/>
     </row>
-    <row r="208" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="208" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A208" s="4" t="s">
         <v>16</v>
       </c>
@@ -7519,7 +7523,7 @@
       <c r="J208" s="4"/>
       <c r="K208" s="4"/>
     </row>
-    <row r="209" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="209" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A209" s="4" t="s">
         <v>16</v>
       </c>
@@ -7550,7 +7554,7 @@
       <c r="J209" s="4"/>
       <c r="K209" s="4"/>
     </row>
-    <row r="210" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="210" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A210" s="4" t="s">
         <v>16</v>
       </c>
@@ -7581,7 +7585,7 @@
       <c r="J210" s="4"/>
       <c r="K210" s="4"/>
     </row>
-    <row r="211" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="211" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A211" s="4" t="s">
         <v>16</v>
       </c>
@@ -7612,7 +7616,7 @@
       <c r="J211" s="4"/>
       <c r="K211" s="4"/>
     </row>
-    <row r="212" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="212" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A212" s="4" t="s">
         <v>16</v>
       </c>
@@ -7643,7 +7647,7 @@
       <c r="J212" s="4"/>
       <c r="K212" s="4"/>
     </row>
-    <row r="213" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="213" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A213" s="4" t="s">
         <v>16</v>
       </c>
@@ -7674,7 +7678,7 @@
       <c r="J213" s="4"/>
       <c r="K213" s="4"/>
     </row>
-    <row r="214" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="214" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A214" s="4" t="s">
         <v>16</v>
       </c>
@@ -7705,7 +7709,7 @@
       <c r="J214" s="4"/>
       <c r="K214" s="4"/>
     </row>
-    <row r="215" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="215" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A215" s="4" t="s">
         <v>16</v>
       </c>
@@ -7736,7 +7740,7 @@
       <c r="J215" s="4"/>
       <c r="K215" s="4"/>
     </row>
-    <row r="216" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="216" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A216" s="4" t="s">
         <v>16</v>
       </c>
@@ -7767,7 +7771,7 @@
       <c r="J216" s="4"/>
       <c r="K216" s="4"/>
     </row>
-    <row r="217" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="217" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A217" s="4" t="s">
         <v>16</v>
       </c>
@@ -7798,7 +7802,7 @@
       <c r="J217" s="4"/>
       <c r="K217" s="4"/>
     </row>
-    <row r="218" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="218" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A218" s="4" t="s">
         <v>16</v>
       </c>
@@ -7829,7 +7833,7 @@
       <c r="J218" s="4"/>
       <c r="K218" s="4"/>
     </row>
-    <row r="219" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="219" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A219" s="4" t="s">
         <v>16</v>
       </c>
@@ -7860,7 +7864,7 @@
       <c r="J219" s="4"/>
       <c r="K219" s="4"/>
     </row>
-    <row r="220" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="220" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A220" s="4" t="s">
         <v>16</v>
       </c>
@@ -7891,7 +7895,7 @@
       <c r="J220" s="4"/>
       <c r="K220" s="4"/>
     </row>
-    <row r="221" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="221" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A221" s="4" t="s">
         <v>16</v>
       </c>
@@ -7922,7 +7926,7 @@
       <c r="J221" s="4"/>
       <c r="K221" s="4"/>
     </row>
-    <row r="222" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="222" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A222" s="4" t="s">
         <v>16</v>
       </c>
@@ -7953,7 +7957,7 @@
       <c r="J222" s="4"/>
       <c r="K222" s="4"/>
     </row>
-    <row r="223" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="223" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A223" s="4" t="s">
         <v>16</v>
       </c>
@@ -7984,7 +7988,7 @@
       <c r="J223" s="4"/>
       <c r="K223" s="4"/>
     </row>
-    <row r="224" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="224" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A224" s="4" t="s">
         <v>16</v>
       </c>
@@ -8015,7 +8019,7 @@
       <c r="J224" s="4"/>
       <c r="K224" s="4"/>
     </row>
-    <row r="225" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="225" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A225" s="4" t="s">
         <v>16</v>
       </c>
@@ -8046,7 +8050,7 @@
       <c r="J225" s="4"/>
       <c r="K225" s="4"/>
     </row>
-    <row r="226" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="226" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A226" s="4" t="s">
         <v>16</v>
       </c>
@@ -8077,7 +8081,7 @@
       <c r="J226" s="4"/>
       <c r="K226" s="4"/>
     </row>
-    <row r="227" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="227" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A227" s="4" t="s">
         <v>16</v>
       </c>
@@ -8108,7 +8112,7 @@
       <c r="J227" s="4"/>
       <c r="K227" s="4"/>
     </row>
-    <row r="228" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="228" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A228" s="4" t="s">
         <v>16</v>
       </c>
@@ -8139,7 +8143,7 @@
       <c r="J228" s="4"/>
       <c r="K228" s="4"/>
     </row>
-    <row r="229" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="229" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A229" s="4" t="s">
         <v>16</v>
       </c>
@@ -8170,7 +8174,7 @@
       <c r="J229" s="4"/>
       <c r="K229" s="4"/>
     </row>
-    <row r="230" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="230" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A230" s="4" t="s">
         <v>16</v>
       </c>
@@ -8201,7 +8205,7 @@
       <c r="J230" s="4"/>
       <c r="K230" s="4"/>
     </row>
-    <row r="231" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="231" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A231" s="4" t="s">
         <v>16</v>
       </c>
@@ -8232,7 +8236,7 @@
       <c r="J231" s="4"/>
       <c r="K231" s="4"/>
     </row>
-    <row r="232" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="232" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A232" s="4" t="s">
         <v>16</v>
       </c>
@@ -8263,7 +8267,7 @@
       <c r="J232" s="4"/>
       <c r="K232" s="4"/>
     </row>
-    <row r="233" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="233" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A233" s="4" t="s">
         <v>16</v>
       </c>
@@ -8294,7 +8298,7 @@
       <c r="J233" s="4"/>
       <c r="K233" s="4"/>
     </row>
-    <row r="234" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="234" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A234" s="4" t="s">
         <v>16</v>
       </c>
@@ -8325,7 +8329,7 @@
       <c r="J234" s="4"/>
       <c r="K234" s="4"/>
     </row>
-    <row r="235" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="235" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A235" s="4" t="s">
         <v>16</v>
       </c>
@@ -8356,7 +8360,7 @@
       <c r="J235" s="4"/>
       <c r="K235" s="4"/>
     </row>
-    <row r="236" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="236" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A236" s="4" t="s">
         <v>16</v>
       </c>
@@ -8387,7 +8391,7 @@
       <c r="J236" s="4"/>
       <c r="K236" s="4"/>
     </row>
-    <row r="237" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="237" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A237" s="4" t="s">
         <v>16</v>
       </c>
@@ -8418,7 +8422,7 @@
       <c r="J237" s="4"/>
       <c r="K237" s="4"/>
     </row>
-    <row r="238" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="238" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A238" s="4" t="s">
         <v>16</v>
       </c>
@@ -8449,7 +8453,7 @@
       <c r="J238" s="4"/>
       <c r="K238" s="4"/>
     </row>
-    <row r="239" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="239" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A239" s="4" t="s">
         <v>16</v>
       </c>
@@ -8480,7 +8484,7 @@
       <c r="J239" s="4"/>
       <c r="K239" s="4"/>
     </row>
-    <row r="240" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="240" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A240" s="4" t="s">
         <v>16</v>
       </c>
@@ -8511,7 +8515,7 @@
       <c r="J240" s="4"/>
       <c r="K240" s="4"/>
     </row>
-    <row r="241" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="241" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A241" s="4" t="s">
         <v>16</v>
       </c>
@@ -8542,7 +8546,7 @@
       <c r="J241" s="4"/>
       <c r="K241" s="4"/>
     </row>
-    <row r="242" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="242" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A242" s="4" t="s">
         <v>16</v>
       </c>
@@ -8573,7 +8577,7 @@
       <c r="J242" s="4"/>
       <c r="K242" s="4"/>
     </row>
-    <row r="243" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="243" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A243" s="4" t="s">
         <v>16</v>
       </c>
@@ -8604,7 +8608,7 @@
       <c r="J243" s="4"/>
       <c r="K243" s="4"/>
     </row>
-    <row r="244" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="244" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A244" s="4" t="s">
         <v>16</v>
       </c>
@@ -8635,7 +8639,7 @@
       <c r="J244" s="4"/>
       <c r="K244" s="4"/>
     </row>
-    <row r="245" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="245" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A245" s="4" t="s">
         <v>16</v>
       </c>
@@ -8666,7 +8670,7 @@
       <c r="J245" s="4"/>
       <c r="K245" s="4"/>
     </row>
-    <row r="246" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="246" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A246" s="4" t="s">
         <v>16</v>
       </c>
@@ -8697,7 +8701,7 @@
       <c r="J246" s="4"/>
       <c r="K246" s="4"/>
     </row>
-    <row r="247" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="247" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A247" s="4" t="s">
         <v>16</v>
       </c>
@@ -8728,7 +8732,7 @@
       <c r="J247" s="4"/>
       <c r="K247" s="4"/>
     </row>
-    <row r="248" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="248" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A248" s="4" t="s">
         <v>16</v>
       </c>
@@ -8759,7 +8763,7 @@
       <c r="J248" s="4"/>
       <c r="K248" s="4"/>
     </row>
-    <row r="249" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="249" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A249" s="4" t="s">
         <v>16</v>
       </c>
@@ -8790,7 +8794,7 @@
       <c r="J249" s="4"/>
       <c r="K249" s="4"/>
     </row>
-    <row r="250" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="250" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A250" s="4" t="s">
         <v>16</v>
       </c>
@@ -8821,7 +8825,7 @@
       <c r="J250" s="4"/>
       <c r="K250" s="4"/>
     </row>
-    <row r="251" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="251" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A251" s="4" t="s">
         <v>16</v>
       </c>
@@ -10402,7 +10406,7 @@
       <c r="J301" s="4"/>
       <c r="K301" s="4"/>
     </row>
-    <row r="302" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="302" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A302" s="4" t="s">
         <v>18</v>
       </c>
@@ -10433,7 +10437,7 @@
       <c r="J302" s="4"/>
       <c r="K302" s="4"/>
     </row>
-    <row r="303" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="303" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A303" s="4" t="s">
         <v>18</v>
       </c>
@@ -10464,7 +10468,7 @@
       <c r="J303" s="4"/>
       <c r="K303" s="4"/>
     </row>
-    <row r="304" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="304" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A304" s="4" t="s">
         <v>18</v>
       </c>
@@ -10495,7 +10499,7 @@
       <c r="J304" s="4"/>
       <c r="K304" s="4"/>
     </row>
-    <row r="305" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="305" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A305" s="4" t="s">
         <v>18</v>
       </c>
@@ -10526,7 +10530,7 @@
       <c r="J305" s="4"/>
       <c r="K305" s="4"/>
     </row>
-    <row r="306" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="306" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A306" s="4" t="s">
         <v>18</v>
       </c>
@@ -10557,7 +10561,7 @@
       <c r="J306" s="4"/>
       <c r="K306" s="4"/>
     </row>
-    <row r="307" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="307" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A307" s="4" t="s">
         <v>18</v>
       </c>
@@ -10588,7 +10592,7 @@
       <c r="J307" s="4"/>
       <c r="K307" s="4"/>
     </row>
-    <row r="308" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="308" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A308" s="4" t="s">
         <v>18</v>
       </c>
@@ -10619,7 +10623,7 @@
       <c r="J308" s="4"/>
       <c r="K308" s="4"/>
     </row>
-    <row r="309" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="309" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A309" s="4" t="s">
         <v>18</v>
       </c>
@@ -10650,7 +10654,7 @@
       <c r="J309" s="4"/>
       <c r="K309" s="4"/>
     </row>
-    <row r="310" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="310" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A310" s="4" t="s">
         <v>18</v>
       </c>
@@ -10681,7 +10685,7 @@
       <c r="J310" s="4"/>
       <c r="K310" s="4"/>
     </row>
-    <row r="311" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="311" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A311" s="4" t="s">
         <v>18</v>
       </c>
@@ -10712,7 +10716,7 @@
       <c r="J311" s="4"/>
       <c r="K311" s="4"/>
     </row>
-    <row r="312" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="312" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A312" s="4" t="s">
         <v>18</v>
       </c>
@@ -10743,7 +10747,7 @@
       <c r="J312" s="4"/>
       <c r="K312" s="4"/>
     </row>
-    <row r="313" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="313" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A313" s="4" t="s">
         <v>18</v>
       </c>
@@ -10774,7 +10778,7 @@
       <c r="J313" s="4"/>
       <c r="K313" s="4"/>
     </row>
-    <row r="314" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="314" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A314" s="4" t="s">
         <v>18</v>
       </c>
@@ -10805,7 +10809,7 @@
       <c r="J314" s="4"/>
       <c r="K314" s="4"/>
     </row>
-    <row r="315" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="315" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A315" s="4" t="s">
         <v>18</v>
       </c>
@@ -10836,7 +10840,7 @@
       <c r="J315" s="4"/>
       <c r="K315" s="4"/>
     </row>
-    <row r="316" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="316" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A316" s="4" t="s">
         <v>18</v>
       </c>
@@ -10867,7 +10871,7 @@
       <c r="J316" s="4"/>
       <c r="K316" s="4"/>
     </row>
-    <row r="317" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="317" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A317" s="4" t="s">
         <v>18</v>
       </c>
@@ -10898,7 +10902,7 @@
       <c r="J317" s="4"/>
       <c r="K317" s="4"/>
     </row>
-    <row r="318" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="318" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A318" s="4" t="s">
         <v>18</v>
       </c>
@@ -10929,7 +10933,7 @@
       <c r="J318" s="4"/>
       <c r="K318" s="4"/>
     </row>
-    <row r="319" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="319" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A319" s="4" t="s">
         <v>18</v>
       </c>
@@ -10960,7 +10964,7 @@
       <c r="J319" s="4"/>
       <c r="K319" s="4"/>
     </row>
-    <row r="320" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="320" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A320" s="4" t="s">
         <v>18</v>
       </c>
@@ -10991,7 +10995,7 @@
       <c r="J320" s="4"/>
       <c r="K320" s="4"/>
     </row>
-    <row r="321" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="321" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A321" s="4" t="s">
         <v>18</v>
       </c>
@@ -11022,7 +11026,7 @@
       <c r="J321" s="4"/>
       <c r="K321" s="4"/>
     </row>
-    <row r="322" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="322" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A322" s="4" t="s">
         <v>18</v>
       </c>
@@ -11053,7 +11057,7 @@
       <c r="J322" s="4"/>
       <c r="K322" s="4"/>
     </row>
-    <row r="323" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="323" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A323" s="4" t="s">
         <v>18</v>
       </c>
@@ -11084,7 +11088,7 @@
       <c r="J323" s="4"/>
       <c r="K323" s="4"/>
     </row>
-    <row r="324" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="324" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A324" s="4" t="s">
         <v>18</v>
       </c>
@@ -11115,7 +11119,7 @@
       <c r="J324" s="4"/>
       <c r="K324" s="4"/>
     </row>
-    <row r="325" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="325" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A325" s="4" t="s">
         <v>18</v>
       </c>
@@ -11146,7 +11150,7 @@
       <c r="J325" s="4"/>
       <c r="K325" s="4"/>
     </row>
-    <row r="326" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="326" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A326" s="4" t="s">
         <v>18</v>
       </c>
@@ -11177,7 +11181,7 @@
       <c r="J326" s="4"/>
       <c r="K326" s="4"/>
     </row>
-    <row r="327" s="1" customFormat="1" ht="12" hidden="1" spans="1:11">
+    <row r="327" s="1" customFormat="1" ht="12" spans="1:11">
       <c r="A327" s="4" t="s">
         <v>18</v>
       </c>
@@ -11457,25 +11461,20 @@
       <c r="K335" s="4"/>
     </row>
     <row r="336" spans="1:11">
-      <c r="A336" s="3"/>
-      <c r="B336" s="3"/>
-      <c r="C336" s="3"/>
-      <c r="D336" s="3"/>
-      <c r="E336" s="3"/>
-      <c r="F336" s="3"/>
-      <c r="G336" s="3"/>
-      <c r="H336" s="3"/>
-      <c r="I336" s="3"/>
-      <c r="J336" s="3"/>
-      <c r="K336" s="3"/>
+      <c r="A336" s="6"/>
+      <c r="B336" s="6"/>
+      <c r="C336" s="6"/>
+      <c r="D336" s="6"/>
+      <c r="E336" s="6"/>
+      <c r="F336" s="6"/>
+      <c r="G336" s="6"/>
+      <c r="H336" s="6"/>
+      <c r="I336" s="6"/>
+      <c r="J336" s="6"/>
+      <c r="K336" s="6"/>
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:I335" etc:filterBottomFollowUsedRange="0">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="F"/>
-      </filters>
-    </filterColumn>
     <extLst/>
   </autoFilter>
   <sortState ref="A2:L335">
